--- a/uploads/Planilha_Online_Albatroz.xlsx
+++ b/uploads/Planilha_Online_Albatroz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\AUTOMATIZACAO_CADASTRO\PLANILHAS_ONLINE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Helton Cardoso\AUTOMATIZACAO_CADASTRO\PLANILHAS_ONLINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8310179-4E6F-4023-ABAD-47339FF35256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01730E6-25D5-451D-85C5-034B8C7FF17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7E3533EE-8A81-4A60-93EF-A94A643EAA99}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E3533EE-8A81-4A60-93EF-A94A643EAA99}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="708">
   <si>
     <t>EAN</t>
   </si>
@@ -8364,9 +8364,6 @@
   </si>
   <si>
     <t>7908816370788</t>
-  </si>
-  <si>
-    <t>FRETE</t>
   </si>
 </sst>
 </file>
@@ -8911,11 +8908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275A5473-6FCF-44AA-86DD-3A44C4A5954D}">
-  <dimension ref="A1:AN137"/>
+  <dimension ref="A1:AM137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF2" sqref="AF2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8927,16 +8924,16 @@
     <col min="9" max="9" width="47.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="25" width="18.5703125" style="2"/>
     <col min="26" max="26" width="76.42578125" style="2" customWidth="1"/>
-    <col min="27" max="35" width="18.5703125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="26.42578125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="25.7109375" style="2" customWidth="1"/>
-    <col min="38" max="38" width="26.140625" style="2" customWidth="1"/>
-    <col min="39" max="39" width="25" style="2" customWidth="1"/>
-    <col min="40" max="40" width="34.85546875" style="2" customWidth="1"/>
-    <col min="41" max="16384" width="18.5703125" style="2"/>
+    <col min="27" max="34" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="26.42578125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="25.7109375" style="2" customWidth="1"/>
+    <col min="37" max="37" width="26.140625" style="2" customWidth="1"/>
+    <col min="38" max="38" width="25" style="2" customWidth="1"/>
+    <col min="39" max="39" width="34.85546875" style="2" customWidth="1"/>
+    <col min="40" max="16384" width="18.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9031,34 +9028,31 @@
         <v>10</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>708</v>
+        <v>32</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>572</v>
       </c>
@@ -9148,31 +9142,30 @@
         <v>1398.54</v>
       </c>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
+      <c r="AF2" s="25">
+        <v>1468.47</v>
+      </c>
       <c r="AG2" s="25">
-        <v>1468.47</v>
-      </c>
-      <c r="AH2" s="25">
         <v>4493.51</v>
       </c>
-      <c r="AI2" s="27">
+      <c r="AH2" s="27">
         <v>2695.9</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AJ2" s="2">
         <v>183</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AL2" s="3">
         <v>1</v>
       </c>
-      <c r="AN2" s="3"/>
+      <c r="AM2" s="3"/>
     </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>573</v>
       </c>
@@ -9260,30 +9253,30 @@
       <c r="AD3" s="26">
         <v>1618.26</v>
       </c>
+      <c r="AF3" s="26">
+        <v>1699.18</v>
+      </c>
       <c r="AG3" s="26">
-        <v>1699.18</v>
-      </c>
-      <c r="AH3" s="26">
         <v>5199.4799999999996</v>
       </c>
-      <c r="AI3" s="28">
+      <c r="AH3" s="28">
         <v>3119.9</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AJ3" s="2">
         <v>183</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AL3" s="5">
         <v>1</v>
       </c>
-      <c r="AN3" s="5"/>
+      <c r="AM3" s="5"/>
     </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>574</v>
       </c>
@@ -9371,30 +9364,30 @@
       <c r="AD4" s="26">
         <v>954.53</v>
       </c>
+      <c r="AF4" s="26">
+        <v>1002.25</v>
+      </c>
       <c r="AG4" s="26">
-        <v>1002.25</v>
-      </c>
-      <c r="AH4" s="26">
         <v>3066.9</v>
       </c>
-      <c r="AI4" s="28">
+      <c r="AH4" s="28">
         <v>1839.9</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AJ4" s="2">
         <v>183</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AL4" s="5">
         <v>1</v>
       </c>
-      <c r="AN4" s="5"/>
+      <c r="AM4" s="5"/>
     </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>575</v>
       </c>
@@ -9482,30 +9475,30 @@
       <c r="AD5" s="26">
         <v>954.53</v>
       </c>
+      <c r="AF5" s="26">
+        <v>1002.25</v>
+      </c>
       <c r="AG5" s="26">
-        <v>1002.25</v>
-      </c>
-      <c r="AH5" s="26">
         <v>3066.9</v>
       </c>
-      <c r="AI5" s="28">
+      <c r="AH5" s="28">
         <v>1839.9</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AJ5" s="2">
         <v>183</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AL5" s="5">
         <v>1</v>
       </c>
-      <c r="AN5" s="5"/>
+      <c r="AM5" s="5"/>
     </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>576</v>
       </c>
@@ -9593,30 +9586,30 @@
       <c r="AD6" s="26">
         <v>1092.75</v>
       </c>
+      <c r="AF6" s="26">
+        <v>1147.3900000000001</v>
+      </c>
       <c r="AG6" s="26">
-        <v>1147.3900000000001</v>
-      </c>
-      <c r="AH6" s="26">
         <v>3511.01</v>
       </c>
-      <c r="AI6" s="28">
+      <c r="AH6" s="28">
         <v>2106.9</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AJ6" s="2">
         <v>183</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM6" s="5">
+      <c r="AL6" s="5">
         <v>1</v>
       </c>
-      <c r="AN6" s="5"/>
+      <c r="AM6" s="5"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>577</v>
       </c>
@@ -9704,30 +9697,30 @@
       <c r="AD7" s="26">
         <v>1092.75</v>
       </c>
+      <c r="AF7" s="26">
+        <v>1147.3900000000001</v>
+      </c>
       <c r="AG7" s="26">
-        <v>1147.3900000000001</v>
-      </c>
-      <c r="AH7" s="26">
         <v>3511.01</v>
       </c>
-      <c r="AI7" s="28">
+      <c r="AH7" s="28">
         <v>2106.9</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AJ7" s="2">
         <v>183</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="AL7" s="5">
         <v>1</v>
       </c>
-      <c r="AN7" s="5"/>
+      <c r="AM7" s="5"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>578</v>
       </c>
@@ -9815,30 +9808,30 @@
       <c r="AD8" s="26">
         <v>753.71</v>
       </c>
+      <c r="AF8" s="26">
+        <v>791.4</v>
+      </c>
       <c r="AG8" s="26">
-        <v>791.4</v>
-      </c>
-      <c r="AH8" s="26">
         <v>2421.6799999999998</v>
       </c>
-      <c r="AI8" s="28">
+      <c r="AH8" s="28">
         <v>1452.9</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AJ8" s="2">
         <v>183</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AL8" s="5">
         <v>1</v>
       </c>
-      <c r="AN8" s="5"/>
+      <c r="AM8" s="5"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>579</v>
       </c>
@@ -9926,30 +9919,30 @@
       <c r="AD9" s="26">
         <v>753.71</v>
       </c>
+      <c r="AF9" s="26">
+        <v>791.4</v>
+      </c>
       <c r="AG9" s="26">
-        <v>791.4</v>
-      </c>
-      <c r="AH9" s="26">
         <v>2421.6799999999998</v>
       </c>
-      <c r="AI9" s="28">
+      <c r="AH9" s="28">
         <v>1452.9</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AJ9" s="2">
         <v>183</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM9" s="5">
+      <c r="AL9" s="5">
         <v>1</v>
       </c>
-      <c r="AN9" s="5"/>
+      <c r="AM9" s="5"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>580</v>
       </c>
@@ -10037,30 +10030,30 @@
       <c r="AD10" s="26">
         <v>850.21</v>
       </c>
+      <c r="AF10" s="26">
+        <v>892.72</v>
+      </c>
       <c r="AG10" s="26">
-        <v>892.72</v>
-      </c>
-      <c r="AH10" s="26">
         <v>2731.72</v>
       </c>
-      <c r="AI10" s="28">
+      <c r="AH10" s="28">
         <v>1638.9</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AJ10" s="2">
         <v>183</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM10" s="5">
+      <c r="AL10" s="5">
         <v>1</v>
       </c>
-      <c r="AN10" s="5"/>
+      <c r="AM10" s="5"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>581</v>
       </c>
@@ -10148,30 +10141,30 @@
       <c r="AD11" s="26">
         <v>850.21</v>
       </c>
+      <c r="AF11" s="26">
+        <v>892.72</v>
+      </c>
       <c r="AG11" s="26">
-        <v>892.72</v>
-      </c>
-      <c r="AH11" s="26">
         <v>2731.72</v>
       </c>
-      <c r="AI11" s="28">
+      <c r="AH11" s="28">
         <v>1638.9</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AJ11" s="2">
         <v>183</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM11" s="5">
+      <c r="AL11" s="5">
         <v>1</v>
       </c>
-      <c r="AN11" s="5"/>
+      <c r="AM11" s="5"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>582</v>
       </c>
@@ -10259,30 +10252,30 @@
       <c r="AD12" s="26">
         <v>692.42</v>
       </c>
+      <c r="AF12" s="26">
+        <v>727.05</v>
+      </c>
       <c r="AG12" s="26">
-        <v>727.05</v>
-      </c>
-      <c r="AH12" s="26">
         <v>2224.7600000000002</v>
       </c>
-      <c r="AI12" s="28">
+      <c r="AH12" s="28">
         <v>1334.9</v>
       </c>
+      <c r="AI12" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ12" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL12" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AL12" s="5">
         <v>1</v>
       </c>
-      <c r="AN12" s="5"/>
+      <c r="AM12" s="5"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>583</v>
       </c>
@@ -10370,30 +10363,30 @@
       <c r="AD13" s="26">
         <v>602.45000000000005</v>
       </c>
+      <c r="AF13" s="26">
+        <v>632.57000000000005</v>
+      </c>
       <c r="AG13" s="26">
-        <v>632.57000000000005</v>
-      </c>
-      <c r="AH13" s="26">
         <v>1935.67</v>
       </c>
-      <c r="AI13" s="28">
+      <c r="AH13" s="28">
         <v>1160.9000000000001</v>
       </c>
+      <c r="AI13" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ13" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL13" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM13" s="5">
+      <c r="AL13" s="5">
         <v>1</v>
       </c>
-      <c r="AN13" s="5"/>
+      <c r="AM13" s="5"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>584</v>
       </c>
@@ -10481,30 +10474,30 @@
       <c r="AD14" s="26">
         <v>602.45000000000005</v>
       </c>
+      <c r="AF14" s="26">
+        <v>632.57000000000005</v>
+      </c>
       <c r="AG14" s="26">
-        <v>632.57000000000005</v>
-      </c>
-      <c r="AH14" s="26">
         <v>1935.67</v>
       </c>
-      <c r="AI14" s="28">
+      <c r="AH14" s="28">
         <v>1160.9000000000001</v>
       </c>
+      <c r="AI14" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ14" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL14" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AL14" s="5">
         <v>1</v>
       </c>
-      <c r="AN14" s="5"/>
+      <c r="AM14" s="5"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>585</v>
       </c>
@@ -10592,30 +10585,30 @@
       <c r="AD15" s="26">
         <v>602.45000000000005</v>
       </c>
+      <c r="AF15" s="26">
+        <v>632.57000000000005</v>
+      </c>
       <c r="AG15" s="26">
-        <v>632.57000000000005</v>
-      </c>
-      <c r="AH15" s="26">
         <v>1935.67</v>
       </c>
-      <c r="AI15" s="28">
+      <c r="AH15" s="28">
         <v>1160.9000000000001</v>
       </c>
+      <c r="AI15" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ15" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL15" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM15" s="5">
+      <c r="AL15" s="5">
         <v>1</v>
       </c>
-      <c r="AN15" s="5"/>
+      <c r="AM15" s="5"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>586</v>
       </c>
@@ -10703,30 +10696,30 @@
       <c r="AD16" s="26">
         <v>602.45000000000005</v>
       </c>
+      <c r="AF16" s="26">
+        <v>632.57000000000005</v>
+      </c>
       <c r="AG16" s="26">
-        <v>632.57000000000005</v>
-      </c>
-      <c r="AH16" s="26">
         <v>1935.67</v>
       </c>
-      <c r="AI16" s="28">
+      <c r="AH16" s="28">
         <v>1160.9000000000001</v>
       </c>
+      <c r="AI16" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ16" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL16" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM16" s="5">
+      <c r="AL16" s="5">
         <v>1</v>
       </c>
-      <c r="AN16" s="5"/>
+      <c r="AM16" s="5"/>
     </row>
-    <row r="17" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>587</v>
       </c>
@@ -10814,30 +10807,30 @@
       <c r="AD17" s="26">
         <v>449.88</v>
       </c>
+      <c r="AF17" s="26">
+        <v>472.37</v>
+      </c>
       <c r="AG17" s="26">
-        <v>472.37</v>
-      </c>
-      <c r="AH17" s="26">
         <v>1445.46</v>
       </c>
-      <c r="AI17" s="28">
+      <c r="AH17" s="28">
         <v>866.9</v>
       </c>
+      <c r="AI17" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ17" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL17" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM17" s="5">
+      <c r="AL17" s="5">
         <v>1</v>
       </c>
-      <c r="AN17" s="5"/>
+      <c r="AM17" s="5"/>
     </row>
-    <row r="18" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>588</v>
       </c>
@@ -10925,30 +10918,30 @@
       <c r="AD18" s="26">
         <v>449.88</v>
       </c>
+      <c r="AF18" s="26">
+        <v>472.37</v>
+      </c>
       <c r="AG18" s="26">
-        <v>472.37</v>
-      </c>
-      <c r="AH18" s="26">
         <v>1445.46</v>
       </c>
-      <c r="AI18" s="28">
+      <c r="AH18" s="28">
         <v>866.9</v>
       </c>
+      <c r="AI18" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ18" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL18" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AL18" s="5">
         <v>1</v>
       </c>
-      <c r="AN18" s="5"/>
+      <c r="AM18" s="5"/>
     </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>589</v>
       </c>
@@ -11036,30 +11029,30 @@
       <c r="AD19" s="26">
         <v>541.16</v>
       </c>
+      <c r="AF19" s="26">
+        <v>568.22</v>
+      </c>
       <c r="AG19" s="26">
-        <v>568.22</v>
-      </c>
-      <c r="AH19" s="26">
         <v>1738.75</v>
       </c>
-      <c r="AI19" s="28">
+      <c r="AH19" s="28">
         <v>1042.9000000000001</v>
       </c>
+      <c r="AI19" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ19" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL19" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM19" s="5">
+      <c r="AL19" s="5">
         <v>1</v>
       </c>
-      <c r="AN19" s="5"/>
+      <c r="AM19" s="5"/>
     </row>
-    <row r="20" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>590</v>
       </c>
@@ -11137,30 +11130,30 @@
       <c r="AD20" s="26">
         <v>376.86</v>
       </c>
+      <c r="AF20" s="26">
+        <v>395.7</v>
+      </c>
       <c r="AG20" s="26">
-        <v>395.7</v>
-      </c>
-      <c r="AH20" s="26">
         <v>1210.8399999999999</v>
       </c>
-      <c r="AI20" s="28">
+      <c r="AH20" s="28">
         <v>726.9</v>
       </c>
+      <c r="AI20" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ20" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL20" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM20" s="5">
+      <c r="AL20" s="5">
         <v>1</v>
       </c>
-      <c r="AN20" s="5"/>
+      <c r="AM20" s="5"/>
     </row>
-    <row r="21" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>591</v>
       </c>
@@ -11238,30 +11231,30 @@
       <c r="AD21" s="26">
         <v>376.86</v>
       </c>
+      <c r="AF21" s="26">
+        <v>395.7</v>
+      </c>
       <c r="AG21" s="26">
-        <v>395.7</v>
-      </c>
-      <c r="AH21" s="26">
         <v>1210.8399999999999</v>
       </c>
-      <c r="AI21" s="28">
+      <c r="AH21" s="28">
         <v>726.9</v>
       </c>
+      <c r="AI21" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ21" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL21" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AL21" s="5">
         <v>1</v>
       </c>
-      <c r="AN21" s="5"/>
+      <c r="AM21" s="5"/>
     </row>
-    <row r="22" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>592</v>
       </c>
@@ -11339,30 +11332,30 @@
       <c r="AD22" s="26">
         <v>394.46</v>
       </c>
+      <c r="AF22" s="26">
+        <v>414.18</v>
+      </c>
       <c r="AG22" s="26">
-        <v>414.18</v>
-      </c>
-      <c r="AH22" s="26">
         <v>1267.4000000000001</v>
       </c>
-      <c r="AI22" s="28">
+      <c r="AH22" s="28">
         <v>759.9</v>
       </c>
+      <c r="AI22" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ22" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL22" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM22" s="5">
+      <c r="AL22" s="5">
         <v>1</v>
       </c>
-      <c r="AN22" s="5"/>
+      <c r="AM22" s="5"/>
     </row>
-    <row r="23" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>593</v>
       </c>
@@ -11440,30 +11433,30 @@
       <c r="AD23" s="26">
         <v>394.46</v>
       </c>
+      <c r="AF23" s="26">
+        <v>414.18</v>
+      </c>
       <c r="AG23" s="26">
-        <v>414.18</v>
-      </c>
-      <c r="AH23" s="26">
         <v>1267.4000000000001</v>
       </c>
-      <c r="AI23" s="28">
+      <c r="AH23" s="28">
         <v>759.9</v>
       </c>
+      <c r="AI23" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ23" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL23" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM23" s="5">
+      <c r="AL23" s="5">
         <v>1</v>
       </c>
-      <c r="AN23" s="5"/>
+      <c r="AM23" s="5"/>
     </row>
-    <row r="24" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>594</v>
       </c>
@@ -11541,30 +11534,30 @@
       <c r="AD24" s="26">
         <v>394.46</v>
       </c>
+      <c r="AF24" s="26">
+        <v>414.18</v>
+      </c>
       <c r="AG24" s="26">
-        <v>414.18</v>
-      </c>
-      <c r="AH24" s="26">
         <v>1267.4000000000001</v>
       </c>
-      <c r="AI24" s="28">
+      <c r="AH24" s="28">
         <v>759.9</v>
       </c>
+      <c r="AI24" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ24" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK24" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL24" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM24" s="5">
+      <c r="AL24" s="5">
         <v>1</v>
       </c>
-      <c r="AN24" s="5"/>
+      <c r="AM24" s="5"/>
     </row>
-    <row r="25" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>595</v>
       </c>
@@ -11652,30 +11645,30 @@
       <c r="AD25" s="26">
         <v>528.12</v>
       </c>
+      <c r="AF25" s="26">
+        <v>554.53</v>
+      </c>
       <c r="AG25" s="26">
-        <v>554.53</v>
-      </c>
-      <c r="AH25" s="26">
         <v>1696.85</v>
       </c>
-      <c r="AI25" s="28">
+      <c r="AH25" s="28">
         <v>1017.9</v>
       </c>
+      <c r="AI25" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ25" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="AK25" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="AL25" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM25" s="5">
+      <c r="AL25" s="5">
         <v>1</v>
       </c>
-      <c r="AN25" s="5"/>
+      <c r="AM25" s="5"/>
     </row>
-    <row r="26" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>596</v>
       </c>
@@ -11763,30 +11756,30 @@
       <c r="AD26" s="26">
         <v>342.95</v>
       </c>
+      <c r="AF26" s="26">
+        <v>360.1</v>
+      </c>
       <c r="AG26" s="26">
-        <v>360.1</v>
-      </c>
-      <c r="AH26" s="26">
         <v>1101.9000000000001</v>
       </c>
-      <c r="AI26" s="28">
+      <c r="AH26" s="28">
         <v>660.9</v>
       </c>
+      <c r="AI26" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="AJ26" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AK26" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AL26" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM26" s="5">
+      <c r="AL26" s="5">
         <v>1</v>
       </c>
-      <c r="AN26" s="5"/>
+      <c r="AM26" s="5"/>
     </row>
-    <row r="27" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>597</v>
       </c>
@@ -11864,30 +11857,30 @@
       <c r="AD27" s="26">
         <v>460.31</v>
       </c>
+      <c r="AF27" s="26">
+        <v>483.33</v>
+      </c>
       <c r="AG27" s="26">
-        <v>483.33</v>
-      </c>
-      <c r="AH27" s="26">
         <v>1478.98</v>
       </c>
-      <c r="AI27" s="28">
+      <c r="AH27" s="28">
         <v>886.9</v>
       </c>
+      <c r="AI27" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="AJ27" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AK27" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AL27" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM27" s="5">
+      <c r="AL27" s="5">
         <v>1</v>
       </c>
-      <c r="AN27" s="5"/>
+      <c r="AM27" s="5"/>
     </row>
-    <row r="28" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>598</v>
       </c>
@@ -11975,30 +11968,30 @@
       <c r="AD28" s="26">
         <v>418.58</v>
       </c>
+      <c r="AF28" s="26">
+        <v>439.51</v>
+      </c>
       <c r="AG28" s="26">
-        <v>439.51</v>
-      </c>
-      <c r="AH28" s="26">
         <v>1344.91</v>
       </c>
-      <c r="AI28" s="28">
+      <c r="AH28" s="28">
         <v>806.9</v>
       </c>
+      <c r="AI28" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="AJ28" s="2" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="AL28" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM28" s="5">
+      <c r="AL28" s="5">
         <v>1</v>
       </c>
-      <c r="AN28" s="5"/>
+      <c r="AM28" s="5"/>
     </row>
-    <row r="29" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>599</v>
       </c>
@@ -12076,30 +12069,30 @@
       <c r="AD29" s="26">
         <v>129.75</v>
       </c>
+      <c r="AF29" s="26">
+        <v>136.24</v>
+      </c>
       <c r="AG29" s="26">
-        <v>136.24</v>
-      </c>
-      <c r="AH29" s="26">
         <v>416.88</v>
       </c>
-      <c r="AI29" s="28">
+      <c r="AH29" s="28">
         <v>249.9</v>
       </c>
+      <c r="AI29" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="AJ29" s="2" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="AK29" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AL29" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM29" s="5">
+      <c r="AL29" s="5">
         <v>1</v>
       </c>
-      <c r="AN29" s="5"/>
+      <c r="AM29" s="5"/>
     </row>
-    <row r="30" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>600</v>
       </c>
@@ -12177,30 +12170,30 @@
       <c r="AD30" s="26">
         <v>129.75</v>
       </c>
+      <c r="AF30" s="26">
+        <v>136.24</v>
+      </c>
       <c r="AG30" s="26">
-        <v>136.24</v>
-      </c>
-      <c r="AH30" s="26">
         <v>416.88</v>
       </c>
-      <c r="AI30" s="28">
+      <c r="AH30" s="28">
         <v>249.9</v>
       </c>
+      <c r="AI30" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="AJ30" s="2" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="AK30" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AL30" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM30" s="5">
+      <c r="AL30" s="5">
         <v>1</v>
       </c>
-      <c r="AN30" s="5"/>
+      <c r="AM30" s="5"/>
     </row>
-    <row r="31" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>601</v>
       </c>
@@ -12278,30 +12271,30 @@
       <c r="AD31" s="26">
         <v>129.75</v>
       </c>
+      <c r="AF31" s="26">
+        <v>136.24</v>
+      </c>
       <c r="AG31" s="26">
-        <v>136.24</v>
-      </c>
-      <c r="AH31" s="26">
         <v>416.88</v>
       </c>
-      <c r="AI31" s="28">
+      <c r="AH31" s="28">
         <v>249.9</v>
       </c>
+      <c r="AI31" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="AJ31" s="2" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="AK31" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AL31" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM31" s="5">
+      <c r="AL31" s="5">
         <v>1</v>
       </c>
-      <c r="AN31" s="5"/>
+      <c r="AM31" s="5"/>
     </row>
-    <row r="32" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>602</v>
       </c>
@@ -12387,32 +12380,32 @@
       <c r="AD32" s="26">
         <v>259.5</v>
       </c>
+      <c r="AF32" s="26">
+        <v>272.47000000000003</v>
+      </c>
       <c r="AG32" s="26">
-        <v>272.47000000000003</v>
-      </c>
-      <c r="AH32" s="26">
         <v>833.76</v>
       </c>
-      <c r="AI32" s="28">
+      <c r="AH32" s="28">
         <v>499.9</v>
       </c>
+      <c r="AI32" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="AJ32" s="2" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="AK32" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AL32" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM32" s="29" t="s">
+      <c r="AL32" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="AN32" s="5" t="s">
+      <c r="AM32" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>603</v>
       </c>
@@ -12498,32 +12491,32 @@
       <c r="AD33" s="26">
         <v>259.5</v>
       </c>
+      <c r="AF33" s="26">
+        <v>272.47000000000003</v>
+      </c>
       <c r="AG33" s="26">
-        <v>272.47000000000003</v>
-      </c>
-      <c r="AH33" s="26">
         <v>833.76</v>
       </c>
-      <c r="AI33" s="28">
+      <c r="AH33" s="28">
         <v>499.9</v>
       </c>
+      <c r="AI33" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="AJ33" s="2" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AL33" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM33" s="29" t="s">
+      <c r="AL33" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="AN33" s="5" t="s">
+      <c r="AM33" s="5" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>604</v>
       </c>
@@ -12609,32 +12602,32 @@
       <c r="AD34" s="26">
         <v>259.5</v>
       </c>
+      <c r="AF34" s="26">
+        <v>272.47000000000003</v>
+      </c>
       <c r="AG34" s="26">
-        <v>272.47000000000003</v>
-      </c>
-      <c r="AH34" s="26">
         <v>833.76</v>
       </c>
-      <c r="AI34" s="28">
+      <c r="AH34" s="28">
         <v>499.9</v>
       </c>
+      <c r="AI34" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="AJ34" s="2" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="AK34" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AL34" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM34" s="29" t="s">
+      <c r="AL34" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="AN34" s="5" t="s">
+      <c r="AM34" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>605</v>
       </c>
@@ -12722,30 +12715,30 @@
       <c r="AD35" s="26">
         <v>1225.76</v>
       </c>
+      <c r="AF35" s="26">
+        <v>1287.05</v>
+      </c>
       <c r="AG35" s="26">
-        <v>1287.05</v>
-      </c>
-      <c r="AH35" s="26">
         <v>3938.37</v>
       </c>
-      <c r="AI35" s="28">
+      <c r="AH35" s="28">
         <v>2362.9</v>
       </c>
-      <c r="AJ35" s="2" t="s">
+      <c r="AI35" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK35" s="2">
+      <c r="AJ35" s="2">
         <v>183</v>
       </c>
-      <c r="AL35" s="2" t="s">
+      <c r="AK35" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM35" s="5">
+      <c r="AL35" s="5">
         <v>1</v>
       </c>
-      <c r="AN35" s="5"/>
+      <c r="AM35" s="5"/>
     </row>
-    <row r="36" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>606</v>
       </c>
@@ -12833,30 +12826,30 @@
       <c r="AD36" s="26">
         <v>1225.76</v>
       </c>
+      <c r="AF36" s="26">
+        <v>1287.05</v>
+      </c>
       <c r="AG36" s="26">
-        <v>1287.05</v>
-      </c>
-      <c r="AH36" s="26">
         <v>3938.37</v>
       </c>
-      <c r="AI36" s="28">
+      <c r="AH36" s="28">
         <v>2362.9</v>
       </c>
-      <c r="AJ36" s="2" t="s">
+      <c r="AI36" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK36" s="2">
+      <c r="AJ36" s="2">
         <v>183</v>
       </c>
-      <c r="AL36" s="2" t="s">
+      <c r="AK36" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM36" s="5">
+      <c r="AL36" s="5">
         <v>1</v>
       </c>
-      <c r="AN36" s="5"/>
+      <c r="AM36" s="5"/>
     </row>
-    <row r="37" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>607</v>
       </c>
@@ -12944,30 +12937,30 @@
       <c r="AD37" s="26">
         <v>1225.76</v>
       </c>
+      <c r="AF37" s="26">
+        <v>1287.05</v>
+      </c>
       <c r="AG37" s="26">
-        <v>1287.05</v>
-      </c>
-      <c r="AH37" s="26">
         <v>3938.37</v>
       </c>
-      <c r="AI37" s="28">
+      <c r="AH37" s="28">
         <v>2362.9</v>
       </c>
-      <c r="AJ37" s="2" t="s">
+      <c r="AI37" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK37" s="2">
+      <c r="AJ37" s="2">
         <v>183</v>
       </c>
-      <c r="AL37" s="2" t="s">
+      <c r="AK37" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM37" s="5">
+      <c r="AL37" s="5">
         <v>1</v>
       </c>
-      <c r="AN37" s="5"/>
+      <c r="AM37" s="5"/>
     </row>
-    <row r="38" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>608</v>
       </c>
@@ -13055,30 +13048,30 @@
       <c r="AD38" s="26">
         <v>1366.59</v>
       </c>
+      <c r="AF38" s="26">
+        <v>1434.92</v>
+      </c>
       <c r="AG38" s="26">
-        <v>1434.92</v>
-      </c>
-      <c r="AH38" s="26">
         <v>4390.8599999999997</v>
       </c>
-      <c r="AI38" s="28">
+      <c r="AH38" s="28">
         <v>2634.9</v>
       </c>
-      <c r="AJ38" s="2" t="s">
+      <c r="AI38" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK38" s="2">
+      <c r="AJ38" s="2">
         <v>183</v>
       </c>
-      <c r="AL38" s="2" t="s">
+      <c r="AK38" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM38" s="5">
+      <c r="AL38" s="5">
         <v>1</v>
       </c>
-      <c r="AN38" s="5"/>
+      <c r="AM38" s="5"/>
     </row>
-    <row r="39" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>609</v>
       </c>
@@ -13166,30 +13159,30 @@
       <c r="AD39" s="26">
         <v>1366.59</v>
       </c>
+      <c r="AF39" s="26">
+        <v>1434.92</v>
+      </c>
       <c r="AG39" s="26">
-        <v>1434.92</v>
-      </c>
-      <c r="AH39" s="26">
         <v>4390.8599999999997</v>
       </c>
-      <c r="AI39" s="28">
+      <c r="AH39" s="28">
         <v>2634.9</v>
       </c>
-      <c r="AJ39" s="2" t="s">
+      <c r="AI39" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK39" s="2">
+      <c r="AJ39" s="2">
         <v>183</v>
       </c>
-      <c r="AL39" s="2" t="s">
+      <c r="AK39" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM39" s="5">
+      <c r="AL39" s="5">
         <v>1</v>
       </c>
-      <c r="AN39" s="5"/>
+      <c r="AM39" s="5"/>
     </row>
-    <row r="40" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>610</v>
       </c>
@@ -13277,30 +13270,30 @@
       <c r="AD40" s="26">
         <v>1366.59</v>
       </c>
+      <c r="AF40" s="26">
+        <v>1434.92</v>
+      </c>
       <c r="AG40" s="26">
-        <v>1434.92</v>
-      </c>
-      <c r="AH40" s="26">
         <v>4390.8599999999997</v>
       </c>
-      <c r="AI40" s="28">
+      <c r="AH40" s="28">
         <v>2634.9</v>
       </c>
-      <c r="AJ40" s="2" t="s">
+      <c r="AI40" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK40" s="2">
+      <c r="AJ40" s="2">
         <v>183</v>
       </c>
-      <c r="AL40" s="2" t="s">
+      <c r="AK40" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM40" s="5">
+      <c r="AL40" s="5">
         <v>1</v>
       </c>
-      <c r="AN40" s="5"/>
+      <c r="AM40" s="5"/>
     </row>
-    <row r="41" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>611</v>
       </c>
@@ -13388,30 +13381,30 @@
       <c r="AD41" s="26">
         <v>1354.2</v>
       </c>
+      <c r="AF41" s="26">
+        <v>1421.91</v>
+      </c>
       <c r="AG41" s="26">
-        <v>1421.91</v>
-      </c>
-      <c r="AH41" s="26">
         <v>4351.0600000000004</v>
       </c>
-      <c r="AI41" s="28">
+      <c r="AH41" s="28">
         <v>2610.9</v>
       </c>
-      <c r="AJ41" s="2" t="s">
+      <c r="AI41" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK41" s="2">
+      <c r="AJ41" s="2">
         <v>183</v>
       </c>
-      <c r="AL41" s="2" t="s">
+      <c r="AK41" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM41" s="5">
+      <c r="AL41" s="5">
         <v>1</v>
       </c>
-      <c r="AN41" s="5"/>
+      <c r="AM41" s="5"/>
     </row>
-    <row r="42" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>612</v>
       </c>
@@ -13499,30 +13492,30 @@
       <c r="AD42" s="26">
         <v>1354.2</v>
       </c>
+      <c r="AF42" s="26">
+        <v>1421.91</v>
+      </c>
       <c r="AG42" s="26">
-        <v>1421.91</v>
-      </c>
-      <c r="AH42" s="26">
         <v>4351.0600000000004</v>
       </c>
-      <c r="AI42" s="28">
+      <c r="AH42" s="28">
         <v>2610.9</v>
       </c>
-      <c r="AJ42" s="2" t="s">
+      <c r="AI42" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK42" s="2">
+      <c r="AJ42" s="2">
         <v>183</v>
       </c>
-      <c r="AL42" s="2" t="s">
+      <c r="AK42" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM42" s="5">
+      <c r="AL42" s="5">
         <v>1</v>
       </c>
-      <c r="AN42" s="5"/>
+      <c r="AM42" s="5"/>
     </row>
-    <row r="43" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>613</v>
       </c>
@@ -13610,30 +13603,30 @@
       <c r="AD43" s="26">
         <v>1598.7</v>
       </c>
+      <c r="AF43" s="26">
+        <v>1678.64</v>
+      </c>
       <c r="AG43" s="26">
-        <v>1678.64</v>
-      </c>
-      <c r="AH43" s="26">
         <v>5136.6400000000003</v>
       </c>
-      <c r="AI43" s="28">
+      <c r="AH43" s="28">
         <v>3081.9</v>
       </c>
-      <c r="AJ43" s="2" t="s">
+      <c r="AI43" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK43" s="2">
+      <c r="AJ43" s="2">
         <v>183</v>
       </c>
-      <c r="AL43" s="2" t="s">
+      <c r="AK43" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM43" s="5">
+      <c r="AL43" s="5">
         <v>1</v>
       </c>
-      <c r="AN43" s="5"/>
+      <c r="AM43" s="5"/>
     </row>
-    <row r="44" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>614</v>
       </c>
@@ -13721,30 +13714,30 @@
       <c r="AD44" s="26">
         <v>1598.7</v>
       </c>
+      <c r="AF44" s="26">
+        <v>1678.64</v>
+      </c>
       <c r="AG44" s="26">
-        <v>1678.64</v>
-      </c>
-      <c r="AH44" s="26">
         <v>5136.6400000000003</v>
       </c>
-      <c r="AI44" s="28">
+      <c r="AH44" s="28">
         <v>3081.9</v>
       </c>
-      <c r="AJ44" s="2" t="s">
+      <c r="AI44" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK44" s="2">
+      <c r="AJ44" s="2">
         <v>183</v>
       </c>
-      <c r="AL44" s="2" t="s">
+      <c r="AK44" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM44" s="5">
+      <c r="AL44" s="5">
         <v>1</v>
       </c>
-      <c r="AN44" s="5"/>
+      <c r="AM44" s="5"/>
     </row>
-    <row r="45" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>615</v>
       </c>
@@ -13832,30 +13825,30 @@
       <c r="AD45" s="26">
         <v>1230.98</v>
       </c>
+      <c r="AF45" s="26">
+        <v>1292.52</v>
+      </c>
       <c r="AG45" s="26">
-        <v>1292.52</v>
-      </c>
-      <c r="AH45" s="26">
         <v>3955.13</v>
       </c>
-      <c r="AI45" s="28">
+      <c r="AH45" s="28">
         <v>2372.9</v>
       </c>
-      <c r="AJ45" s="2" t="s">
+      <c r="AI45" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK45" s="2">
+      <c r="AJ45" s="2">
         <v>183</v>
       </c>
-      <c r="AL45" s="2" t="s">
+      <c r="AK45" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM45" s="5">
+      <c r="AL45" s="5">
         <v>1</v>
       </c>
-      <c r="AN45" s="5"/>
+      <c r="AM45" s="5"/>
     </row>
-    <row r="46" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>616</v>
       </c>
@@ -13943,30 +13936,30 @@
       <c r="AD46" s="26">
         <v>1230.98</v>
       </c>
+      <c r="AF46" s="26">
+        <v>1292.52</v>
+      </c>
       <c r="AG46" s="26">
-        <v>1292.52</v>
-      </c>
-      <c r="AH46" s="26">
         <v>3955.13</v>
       </c>
-      <c r="AI46" s="28">
+      <c r="AH46" s="28">
         <v>2372.9</v>
       </c>
-      <c r="AJ46" s="2" t="s">
+      <c r="AI46" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK46" s="2">
+      <c r="AJ46" s="2">
         <v>183</v>
       </c>
-      <c r="AL46" s="2" t="s">
+      <c r="AK46" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM46" s="5">
+      <c r="AL46" s="5">
         <v>1</v>
       </c>
-      <c r="AN46" s="5"/>
+      <c r="AM46" s="5"/>
     </row>
-    <row r="47" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>617</v>
       </c>
@@ -14054,30 +14047,30 @@
       <c r="AD47" s="26">
         <v>1230.98</v>
       </c>
+      <c r="AF47" s="26">
+        <v>1292.52</v>
+      </c>
       <c r="AG47" s="26">
-        <v>1292.52</v>
-      </c>
-      <c r="AH47" s="26">
         <v>3955.13</v>
       </c>
-      <c r="AI47" s="28">
+      <c r="AH47" s="28">
         <v>2372.9</v>
       </c>
-      <c r="AJ47" s="2" t="s">
+      <c r="AI47" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK47" s="2">
+      <c r="AJ47" s="2">
         <v>183</v>
       </c>
-      <c r="AL47" s="2" t="s">
+      <c r="AK47" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM47" s="5">
+      <c r="AL47" s="5">
         <v>1</v>
       </c>
-      <c r="AN47" s="5"/>
+      <c r="AM47" s="5"/>
     </row>
-    <row r="48" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>618</v>
       </c>
@@ -14165,30 +14158,30 @@
       <c r="AD48" s="26">
         <v>1449.4</v>
       </c>
+      <c r="AF48" s="26">
+        <v>1521.87</v>
+      </c>
       <c r="AG48" s="26">
-        <v>1521.87</v>
-      </c>
-      <c r="AH48" s="26">
         <v>4656.91</v>
       </c>
-      <c r="AI48" s="28">
+      <c r="AH48" s="28">
         <v>2793.9</v>
       </c>
-      <c r="AJ48" s="2" t="s">
+      <c r="AI48" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK48" s="2">
+      <c r="AJ48" s="2">
         <v>183</v>
       </c>
-      <c r="AL48" s="2" t="s">
+      <c r="AK48" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM48" s="5">
+      <c r="AL48" s="5">
         <v>1</v>
       </c>
-      <c r="AN48" s="5"/>
+      <c r="AM48" s="5"/>
     </row>
-    <row r="49" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>619</v>
       </c>
@@ -14276,30 +14269,30 @@
       <c r="AD49" s="26">
         <v>1449.4</v>
       </c>
+      <c r="AF49" s="26">
+        <v>1521.87</v>
+      </c>
       <c r="AG49" s="26">
-        <v>1521.87</v>
-      </c>
-      <c r="AH49" s="26">
         <v>4656.91</v>
       </c>
-      <c r="AI49" s="28">
+      <c r="AH49" s="28">
         <v>2793.9</v>
       </c>
-      <c r="AJ49" s="2" t="s">
+      <c r="AI49" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK49" s="2">
+      <c r="AJ49" s="2">
         <v>183</v>
       </c>
-      <c r="AL49" s="2" t="s">
+      <c r="AK49" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM49" s="5">
+      <c r="AL49" s="5">
         <v>1</v>
       </c>
-      <c r="AN49" s="5"/>
+      <c r="AM49" s="5"/>
     </row>
-    <row r="50" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>620</v>
       </c>
@@ -14387,30 +14380,30 @@
       <c r="AD50" s="26">
         <v>1449.4</v>
       </c>
+      <c r="AF50" s="26">
+        <v>1521.87</v>
+      </c>
       <c r="AG50" s="26">
-        <v>1521.87</v>
-      </c>
-      <c r="AH50" s="26">
         <v>4656.91</v>
       </c>
-      <c r="AI50" s="28">
+      <c r="AH50" s="28">
         <v>2793.9</v>
       </c>
-      <c r="AJ50" s="2" t="s">
+      <c r="AI50" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK50" s="2">
+      <c r="AJ50" s="2">
         <v>183</v>
       </c>
-      <c r="AL50" s="2" t="s">
+      <c r="AK50" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM50" s="5">
+      <c r="AL50" s="5">
         <v>1</v>
       </c>
-      <c r="AN50" s="5"/>
+      <c r="AM50" s="5"/>
     </row>
-    <row r="51" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>621</v>
       </c>
@@ -14498,30 +14491,30 @@
       <c r="AD51" s="26">
         <v>1004.73</v>
       </c>
+      <c r="AF51" s="26">
+        <v>1054.97</v>
+      </c>
       <c r="AG51" s="26">
-        <v>1054.97</v>
-      </c>
-      <c r="AH51" s="26">
         <v>3228.2</v>
       </c>
-      <c r="AI51" s="28">
+      <c r="AH51" s="28">
         <v>1936.9</v>
       </c>
-      <c r="AJ51" s="2" t="s">
+      <c r="AI51" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK51" s="2">
+      <c r="AJ51" s="2">
         <v>183</v>
       </c>
-      <c r="AL51" s="2" t="s">
+      <c r="AK51" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM51" s="5">
+      <c r="AL51" s="5">
         <v>1</v>
       </c>
-      <c r="AN51" s="5"/>
+      <c r="AM51" s="5"/>
     </row>
-    <row r="52" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>622</v>
       </c>
@@ -14609,30 +14602,30 @@
       <c r="AD52" s="26">
         <v>1004.73</v>
       </c>
+      <c r="AF52" s="26">
+        <v>1054.97</v>
+      </c>
       <c r="AG52" s="26">
-        <v>1054.97</v>
-      </c>
-      <c r="AH52" s="26">
         <v>3228.2</v>
       </c>
-      <c r="AI52" s="28">
+      <c r="AH52" s="28">
         <v>1936.9</v>
       </c>
-      <c r="AJ52" s="2" t="s">
+      <c r="AI52" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK52" s="2">
+      <c r="AJ52" s="2">
         <v>183</v>
       </c>
-      <c r="AL52" s="2" t="s">
+      <c r="AK52" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM52" s="5">
+      <c r="AL52" s="5">
         <v>1</v>
       </c>
-      <c r="AN52" s="5"/>
+      <c r="AM52" s="5"/>
     </row>
-    <row r="53" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>623</v>
       </c>
@@ -14720,30 +14713,30 @@
       <c r="AD53" s="26">
         <v>786.31</v>
       </c>
+      <c r="AF53" s="26">
+        <v>825.63</v>
+      </c>
       <c r="AG53" s="26">
-        <v>825.63</v>
-      </c>
-      <c r="AH53" s="26">
         <v>2526.42</v>
       </c>
-      <c r="AI53" s="28">
+      <c r="AH53" s="28">
         <v>1515.9</v>
       </c>
-      <c r="AJ53" s="2" t="s">
+      <c r="AI53" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK53" s="2">
+      <c r="AJ53" s="2">
         <v>183</v>
       </c>
-      <c r="AL53" s="2" t="s">
+      <c r="AK53" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM53" s="5">
+      <c r="AL53" s="5">
         <v>1</v>
       </c>
-      <c r="AN53" s="5"/>
+      <c r="AM53" s="5"/>
     </row>
-    <row r="54" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>624</v>
       </c>
@@ -14831,30 +14824,30 @@
       <c r="AD54" s="26">
         <v>786.31</v>
       </c>
+      <c r="AF54" s="26">
+        <v>825.63</v>
+      </c>
       <c r="AG54" s="26">
-        <v>825.63</v>
-      </c>
-      <c r="AH54" s="26">
         <v>2526.42</v>
       </c>
-      <c r="AI54" s="28">
+      <c r="AH54" s="28">
         <v>1515.9</v>
       </c>
-      <c r="AJ54" s="2" t="s">
+      <c r="AI54" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK54" s="2">
+      <c r="AJ54" s="2">
         <v>183</v>
       </c>
-      <c r="AL54" s="2" t="s">
+      <c r="AK54" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM54" s="5">
+      <c r="AL54" s="5">
         <v>1</v>
       </c>
-      <c r="AN54" s="5"/>
+      <c r="AM54" s="5"/>
     </row>
-    <row r="55" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>625</v>
       </c>
@@ -14942,30 +14935,30 @@
       <c r="AD55" s="26">
         <v>876.94</v>
       </c>
+      <c r="AF55" s="26">
+        <v>920.79</v>
+      </c>
       <c r="AG55" s="26">
-        <v>920.79</v>
-      </c>
-      <c r="AH55" s="26">
         <v>2817.61</v>
       </c>
-      <c r="AI55" s="28">
+      <c r="AH55" s="28">
         <v>1690.9</v>
       </c>
-      <c r="AJ55" s="2" t="s">
+      <c r="AI55" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK55" s="2">
+      <c r="AJ55" s="2">
         <v>183</v>
       </c>
-      <c r="AL55" s="2" t="s">
+      <c r="AK55" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM55" s="5">
+      <c r="AL55" s="5">
         <v>1</v>
       </c>
-      <c r="AN55" s="5"/>
+      <c r="AM55" s="5"/>
     </row>
-    <row r="56" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>626</v>
       </c>
@@ -15053,30 +15046,30 @@
       <c r="AD56" s="26">
         <v>876.94</v>
       </c>
+      <c r="AF56" s="26">
+        <v>920.79</v>
+      </c>
       <c r="AG56" s="26">
-        <v>920.79</v>
-      </c>
-      <c r="AH56" s="26">
         <v>2817.61</v>
       </c>
-      <c r="AI56" s="28">
+      <c r="AH56" s="28">
         <v>1690.9</v>
       </c>
-      <c r="AJ56" s="2" t="s">
+      <c r="AI56" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AK56" s="2">
+      <c r="AJ56" s="2">
         <v>183</v>
       </c>
-      <c r="AL56" s="2" t="s">
+      <c r="AK56" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM56" s="5">
+      <c r="AL56" s="5">
         <v>1</v>
       </c>
-      <c r="AN56" s="5"/>
+      <c r="AM56" s="5"/>
     </row>
-    <row r="57" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>627</v>
       </c>
@@ -15164,30 +15157,30 @@
       <c r="AD57" s="26">
         <v>764.8</v>
       </c>
+      <c r="AF57" s="26">
+        <v>803.04</v>
+      </c>
       <c r="AG57" s="26">
-        <v>803.04</v>
-      </c>
-      <c r="AH57" s="26">
         <v>2457.29</v>
       </c>
-      <c r="AI57" s="28">
+      <c r="AH57" s="28">
         <v>1473.9</v>
       </c>
+      <c r="AI57" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ57" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK57" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL57" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM57" s="5">
+      <c r="AL57" s="5">
         <v>1</v>
       </c>
-      <c r="AN57" s="5"/>
+      <c r="AM57" s="5"/>
     </row>
-    <row r="58" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>628</v>
       </c>
@@ -15275,30 +15268,30 @@
       <c r="AD58" s="26">
         <v>764.8</v>
       </c>
+      <c r="AF58" s="26">
+        <v>803.04</v>
+      </c>
       <c r="AG58" s="26">
-        <v>803.04</v>
-      </c>
-      <c r="AH58" s="26">
         <v>2457.29</v>
       </c>
-      <c r="AI58" s="28">
+      <c r="AH58" s="28">
         <v>1473.9</v>
       </c>
+      <c r="AI58" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ58" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK58" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL58" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM58" s="5">
+      <c r="AL58" s="5">
         <v>1</v>
       </c>
-      <c r="AN58" s="5"/>
+      <c r="AM58" s="5"/>
     </row>
-    <row r="59" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>629</v>
       </c>
@@ -15386,30 +15379,30 @@
       <c r="AD59" s="26">
         <v>984.52</v>
       </c>
+      <c r="AF59" s="26">
+        <v>1033.75</v>
+      </c>
       <c r="AG59" s="26">
-        <v>1033.75</v>
-      </c>
-      <c r="AH59" s="26">
         <v>3163.26</v>
       </c>
-      <c r="AI59" s="28">
+      <c r="AH59" s="28">
         <v>1897.9</v>
       </c>
+      <c r="AI59" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ59" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK59" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL59" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM59" s="5">
+      <c r="AL59" s="5">
         <v>1</v>
       </c>
-      <c r="AN59" s="5"/>
+      <c r="AM59" s="5"/>
     </row>
-    <row r="60" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>630</v>
       </c>
@@ -15497,30 +15490,30 @@
       <c r="AD60" s="26">
         <v>984.52</v>
       </c>
+      <c r="AF60" s="26">
+        <v>1033.75</v>
+      </c>
       <c r="AG60" s="26">
-        <v>1033.75</v>
-      </c>
-      <c r="AH60" s="26">
         <v>3163.26</v>
       </c>
-      <c r="AI60" s="28">
+      <c r="AH60" s="28">
         <v>1897.9</v>
       </c>
+      <c r="AI60" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ60" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK60" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL60" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM60" s="5">
+      <c r="AL60" s="5">
         <v>1</v>
       </c>
-      <c r="AN60" s="5"/>
+      <c r="AM60" s="5"/>
     </row>
-    <row r="61" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>631</v>
       </c>
@@ -15608,30 +15601,30 @@
       <c r="AD61" s="26">
         <v>782.4</v>
       </c>
+      <c r="AF61" s="26">
+        <v>821.52</v>
+      </c>
       <c r="AG61" s="26">
-        <v>821.52</v>
-      </c>
-      <c r="AH61" s="26">
         <v>2513.85</v>
       </c>
-      <c r="AI61" s="28">
+      <c r="AH61" s="28">
         <v>1507.9</v>
       </c>
+      <c r="AI61" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ61" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK61" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL61" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM61" s="5">
+      <c r="AL61" s="5">
         <v>1</v>
       </c>
-      <c r="AN61" s="5"/>
+      <c r="AM61" s="5"/>
     </row>
-    <row r="62" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>632</v>
       </c>
@@ -15719,30 +15712,30 @@
       <c r="AD62" s="26">
         <v>782.4</v>
       </c>
+      <c r="AF62" s="26">
+        <v>821.52</v>
+      </c>
       <c r="AG62" s="26">
-        <v>821.52</v>
-      </c>
-      <c r="AH62" s="26">
         <v>2513.85</v>
       </c>
-      <c r="AI62" s="28">
+      <c r="AH62" s="28">
         <v>1507.9</v>
       </c>
+      <c r="AI62" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ62" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK62" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL62" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM62" s="5">
+      <c r="AL62" s="5">
         <v>1</v>
       </c>
-      <c r="AN62" s="5"/>
+      <c r="AM62" s="5"/>
     </row>
-    <row r="63" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>633</v>
       </c>
@@ -15830,30 +15823,30 @@
       <c r="AD63" s="26">
         <v>782.4</v>
       </c>
+      <c r="AF63" s="26">
+        <v>821.52</v>
+      </c>
       <c r="AG63" s="26">
-        <v>821.52</v>
-      </c>
-      <c r="AH63" s="26">
         <v>2513.85</v>
       </c>
-      <c r="AI63" s="28">
+      <c r="AH63" s="28">
         <v>1507.9</v>
       </c>
+      <c r="AI63" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ63" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK63" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL63" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM63" s="5">
+      <c r="AL63" s="5">
         <v>1</v>
       </c>
-      <c r="AN63" s="5"/>
+      <c r="AM63" s="5"/>
     </row>
-    <row r="64" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>634</v>
       </c>
@@ -15941,30 +15934,30 @@
       <c r="AD64" s="26">
         <v>782.4</v>
       </c>
+      <c r="AF64" s="26">
+        <v>821.52</v>
+      </c>
       <c r="AG64" s="26">
-        <v>821.52</v>
-      </c>
-      <c r="AH64" s="26">
         <v>2513.85</v>
       </c>
-      <c r="AI64" s="28">
+      <c r="AH64" s="28">
         <v>1507.9</v>
       </c>
+      <c r="AI64" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ64" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK64" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL64" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM64" s="5">
+      <c r="AL64" s="5">
         <v>1</v>
       </c>
-      <c r="AN64" s="5"/>
+      <c r="AM64" s="5"/>
     </row>
-    <row r="65" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>635</v>
       </c>
@@ -16052,30 +16045,30 @@
       <c r="AD65" s="26">
         <v>936.27</v>
       </c>
+      <c r="AF65" s="26">
+        <v>983.09</v>
+      </c>
       <c r="AG65" s="26">
-        <v>983.09</v>
-      </c>
-      <c r="AH65" s="26">
         <v>3008.24</v>
       </c>
-      <c r="AI65" s="28">
+      <c r="AH65" s="28">
         <v>1804.9</v>
       </c>
+      <c r="AI65" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ65" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK65" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL65" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM65" s="5">
+      <c r="AL65" s="5">
         <v>1</v>
       </c>
-      <c r="AN65" s="5"/>
+      <c r="AM65" s="5"/>
     </row>
-    <row r="66" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>636</v>
       </c>
@@ -16163,30 +16156,30 @@
       <c r="AD66" s="26">
         <v>936.27</v>
       </c>
+      <c r="AF66" s="26">
+        <v>983.09</v>
+      </c>
       <c r="AG66" s="26">
-        <v>983.09</v>
-      </c>
-      <c r="AH66" s="26">
         <v>3008.24</v>
       </c>
-      <c r="AI66" s="28">
+      <c r="AH66" s="28">
         <v>1804.9</v>
       </c>
+      <c r="AI66" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ66" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK66" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL66" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM66" s="5">
+      <c r="AL66" s="5">
         <v>1</v>
       </c>
-      <c r="AN66" s="5"/>
+      <c r="AM66" s="5"/>
     </row>
-    <row r="67" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>637</v>
       </c>
@@ -16274,30 +16267,30 @@
       <c r="AD67" s="26">
         <v>936.27</v>
       </c>
+      <c r="AF67" s="26">
+        <v>983.09</v>
+      </c>
       <c r="AG67" s="26">
-        <v>983.09</v>
-      </c>
-      <c r="AH67" s="26">
         <v>3008.24</v>
       </c>
-      <c r="AI67" s="28">
+      <c r="AH67" s="28">
         <v>1804.9</v>
       </c>
+      <c r="AI67" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ67" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK67" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL67" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM67" s="5">
+      <c r="AL67" s="5">
         <v>1</v>
       </c>
-      <c r="AN67" s="5"/>
+      <c r="AM67" s="5"/>
     </row>
-    <row r="68" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>638</v>
       </c>
@@ -16385,30 +16378,30 @@
       <c r="AD68" s="26">
         <v>936.27</v>
       </c>
+      <c r="AF68" s="26">
+        <v>983.09</v>
+      </c>
       <c r="AG68" s="26">
-        <v>983.09</v>
-      </c>
-      <c r="AH68" s="26">
         <v>3008.24</v>
       </c>
-      <c r="AI68" s="28">
+      <c r="AH68" s="28">
         <v>1804.9</v>
       </c>
+      <c r="AI68" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ68" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK68" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL68" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM68" s="5">
+      <c r="AL68" s="5">
         <v>1</v>
       </c>
-      <c r="AN68" s="5"/>
+      <c r="AM68" s="5"/>
     </row>
-    <row r="69" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>639</v>
       </c>
@@ -16496,30 +16489,30 @@
       <c r="AD69" s="26">
         <v>614.84</v>
       </c>
+      <c r="AF69" s="26">
+        <v>645.58000000000004</v>
+      </c>
       <c r="AG69" s="26">
-        <v>645.58000000000004</v>
-      </c>
-      <c r="AH69" s="26">
         <v>1975.47</v>
       </c>
-      <c r="AI69" s="28">
+      <c r="AH69" s="28">
         <v>1184.9000000000001</v>
       </c>
+      <c r="AI69" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ69" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK69" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL69" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM69" s="5">
+      <c r="AL69" s="5">
         <v>1</v>
       </c>
-      <c r="AN69" s="5"/>
+      <c r="AM69" s="5"/>
     </row>
-    <row r="70" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>640</v>
       </c>
@@ -16607,30 +16600,30 @@
       <c r="AD70" s="26">
         <v>614.84</v>
       </c>
+      <c r="AF70" s="26">
+        <v>645.58000000000004</v>
+      </c>
       <c r="AG70" s="26">
-        <v>645.58000000000004</v>
-      </c>
-      <c r="AH70" s="26">
         <v>1975.47</v>
       </c>
-      <c r="AI70" s="28">
+      <c r="AH70" s="28">
         <v>1184.9000000000001</v>
       </c>
+      <c r="AI70" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ70" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK70" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL70" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM70" s="5">
+      <c r="AL70" s="5">
         <v>1</v>
       </c>
-      <c r="AN70" s="5"/>
+      <c r="AM70" s="5"/>
     </row>
-    <row r="71" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>641</v>
       </c>
@@ -16718,30 +16711,30 @@
       <c r="AD71" s="26">
         <v>614.84</v>
       </c>
+      <c r="AF71" s="26">
+        <v>645.58000000000004</v>
+      </c>
       <c r="AG71" s="26">
-        <v>645.58000000000004</v>
-      </c>
-      <c r="AH71" s="26">
         <v>1975.47</v>
       </c>
-      <c r="AI71" s="28">
+      <c r="AH71" s="28">
         <v>1184.9000000000001</v>
       </c>
+      <c r="AI71" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ71" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK71" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL71" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM71" s="5">
+      <c r="AL71" s="5">
         <v>1</v>
       </c>
-      <c r="AN71" s="5"/>
+      <c r="AM71" s="5"/>
     </row>
-    <row r="72" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>642</v>
       </c>
@@ -16829,30 +16822,30 @@
       <c r="AD72" s="26">
         <v>355.34</v>
       </c>
+      <c r="AF72" s="26">
+        <v>373.11</v>
+      </c>
       <c r="AG72" s="26">
-        <v>373.11</v>
-      </c>
-      <c r="AH72" s="26">
         <v>1141.71</v>
       </c>
-      <c r="AI72" s="28">
+      <c r="AH72" s="28">
         <v>684.9</v>
       </c>
+      <c r="AI72" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ72" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK72" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL72" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM72" s="5">
+      <c r="AL72" s="5">
         <v>1</v>
       </c>
-      <c r="AN72" s="5"/>
+      <c r="AM72" s="5"/>
     </row>
-    <row r="73" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>643</v>
       </c>
@@ -16940,30 +16933,30 @@
       <c r="AD73" s="26">
         <v>355.34</v>
       </c>
+      <c r="AF73" s="26">
+        <v>373.11</v>
+      </c>
       <c r="AG73" s="26">
-        <v>373.11</v>
-      </c>
-      <c r="AH73" s="26">
         <v>1141.71</v>
       </c>
-      <c r="AI73" s="28">
+      <c r="AH73" s="28">
         <v>684.9</v>
       </c>
+      <c r="AI73" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ73" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK73" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL73" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM73" s="5">
+      <c r="AL73" s="5">
         <v>1</v>
       </c>
-      <c r="AN73" s="5"/>
+      <c r="AM73" s="5"/>
     </row>
-    <row r="74" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>644</v>
       </c>
@@ -17051,30 +17044,30 @@
       <c r="AD74" s="26">
         <v>355.34</v>
       </c>
+      <c r="AF74" s="26">
+        <v>373.11</v>
+      </c>
       <c r="AG74" s="26">
-        <v>373.11</v>
-      </c>
-      <c r="AH74" s="26">
         <v>1141.71</v>
       </c>
-      <c r="AI74" s="28">
+      <c r="AH74" s="28">
         <v>684.9</v>
       </c>
+      <c r="AI74" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ74" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK74" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL74" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM74" s="5">
+      <c r="AL74" s="5">
         <v>1</v>
       </c>
-      <c r="AN74" s="5"/>
+      <c r="AM74" s="5"/>
     </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>645</v>
       </c>
@@ -17162,30 +17155,30 @@
       <c r="AD75" s="26">
         <v>355.34</v>
       </c>
+      <c r="AF75" s="26">
+        <v>373.11</v>
+      </c>
       <c r="AG75" s="26">
-        <v>373.11</v>
-      </c>
-      <c r="AH75" s="26">
         <v>1141.71</v>
       </c>
-      <c r="AI75" s="28">
+      <c r="AH75" s="28">
         <v>684.9</v>
       </c>
+      <c r="AI75" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ75" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK75" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL75" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM75" s="5">
+      <c r="AL75" s="5">
         <v>1</v>
       </c>
-      <c r="AN75" s="5"/>
+      <c r="AM75" s="5"/>
     </row>
-    <row r="76" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>646</v>
       </c>
@@ -17273,30 +17266,30 @@
       <c r="AD76" s="26">
         <v>421.19</v>
       </c>
+      <c r="AF76" s="26">
+        <v>442.25</v>
+      </c>
       <c r="AG76" s="26">
-        <v>442.25</v>
-      </c>
-      <c r="AH76" s="26">
         <v>1353.29</v>
       </c>
-      <c r="AI76" s="28">
+      <c r="AH76" s="28">
         <v>811.9</v>
       </c>
+      <c r="AI76" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ76" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK76" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL76" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM76" s="5">
+      <c r="AL76" s="5">
         <v>1</v>
       </c>
-      <c r="AN76" s="5"/>
+      <c r="AM76" s="5"/>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>647</v>
       </c>
@@ -17384,30 +17377,30 @@
       <c r="AD77" s="26">
         <v>421.19</v>
       </c>
+      <c r="AF77" s="26">
+        <v>442.25</v>
+      </c>
       <c r="AG77" s="26">
-        <v>442.25</v>
-      </c>
-      <c r="AH77" s="26">
         <v>1353.29</v>
       </c>
-      <c r="AI77" s="28">
+      <c r="AH77" s="28">
         <v>811.9</v>
       </c>
+      <c r="AI77" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ77" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK77" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL77" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM77" s="5">
+      <c r="AL77" s="5">
         <v>1</v>
       </c>
-      <c r="AN77" s="5"/>
+      <c r="AM77" s="5"/>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>648</v>
       </c>
@@ -17495,30 +17488,30 @@
       <c r="AD78" s="26">
         <v>421.19</v>
       </c>
+      <c r="AF78" s="26">
+        <v>442.25</v>
+      </c>
       <c r="AG78" s="26">
-        <v>442.25</v>
-      </c>
-      <c r="AH78" s="26">
         <v>1353.29</v>
       </c>
-      <c r="AI78" s="28">
+      <c r="AH78" s="28">
         <v>811.9</v>
       </c>
+      <c r="AI78" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ78" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL78" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM78" s="5">
+      <c r="AL78" s="5">
         <v>1</v>
       </c>
-      <c r="AN78" s="5"/>
+      <c r="AM78" s="5"/>
     </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>649</v>
       </c>
@@ -17606,30 +17599,30 @@
       <c r="AD79" s="26">
         <v>421.19</v>
       </c>
+      <c r="AF79" s="26">
+        <v>442.25</v>
+      </c>
       <c r="AG79" s="26">
-        <v>442.25</v>
-      </c>
-      <c r="AH79" s="26">
         <v>1353.29</v>
       </c>
-      <c r="AI79" s="28">
+      <c r="AH79" s="28">
         <v>811.9</v>
       </c>
+      <c r="AI79" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ79" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL79" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM79" s="5">
+      <c r="AL79" s="5">
         <v>1</v>
       </c>
-      <c r="AN79" s="5"/>
+      <c r="AM79" s="5"/>
     </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>650</v>
       </c>
@@ -17717,30 +17710,30 @@
       <c r="AD80" s="26">
         <v>459.01</v>
       </c>
+      <c r="AF80" s="26">
+        <v>481.96</v>
+      </c>
       <c r="AG80" s="26">
-        <v>481.96</v>
-      </c>
-      <c r="AH80" s="26">
         <v>1474.79</v>
       </c>
-      <c r="AI80" s="28">
+      <c r="AH80" s="28">
         <v>884.9</v>
       </c>
+      <c r="AI80" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ80" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK80" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL80" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM80" s="5">
+      <c r="AL80" s="5">
         <v>1</v>
       </c>
-      <c r="AN80" s="5"/>
+      <c r="AM80" s="5"/>
     </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>651</v>
       </c>
@@ -17828,30 +17821,30 @@
       <c r="AD81" s="26">
         <v>459.01</v>
       </c>
+      <c r="AF81" s="26">
+        <v>481.96</v>
+      </c>
       <c r="AG81" s="26">
-        <v>481.96</v>
-      </c>
-      <c r="AH81" s="26">
         <v>1474.79</v>
       </c>
-      <c r="AI81" s="28">
+      <c r="AH81" s="28">
         <v>884.9</v>
       </c>
+      <c r="AI81" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ81" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK81" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL81" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM81" s="5">
+      <c r="AL81" s="5">
         <v>1</v>
       </c>
-      <c r="AN81" s="5"/>
+      <c r="AM81" s="5"/>
     </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>652</v>
       </c>
@@ -17939,30 +17932,30 @@
       <c r="AD82" s="26">
         <v>459.01</v>
       </c>
+      <c r="AF82" s="26">
+        <v>481.96</v>
+      </c>
       <c r="AG82" s="26">
-        <v>481.96</v>
-      </c>
-      <c r="AH82" s="26">
         <v>1474.79</v>
       </c>
-      <c r="AI82" s="28">
+      <c r="AH82" s="28">
         <v>884.9</v>
       </c>
+      <c r="AI82" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ82" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK82" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL82" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM82" s="5">
+      <c r="AL82" s="5">
         <v>1</v>
       </c>
-      <c r="AN82" s="5"/>
+      <c r="AM82" s="5"/>
     </row>
-    <row r="83" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>653</v>
       </c>
@@ -18050,30 +18043,30 @@
       <c r="AD83" s="26">
         <v>525.51</v>
       </c>
+      <c r="AF83" s="26">
+        <v>551.79</v>
+      </c>
       <c r="AG83" s="26">
-        <v>551.79</v>
-      </c>
-      <c r="AH83" s="26">
         <v>1688.47</v>
       </c>
-      <c r="AI83" s="28">
+      <c r="AH83" s="28">
         <v>1012.9</v>
       </c>
+      <c r="AI83" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ83" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK83" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL83" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM83" s="5">
+      <c r="AL83" s="5">
         <v>1</v>
       </c>
-      <c r="AN83" s="5"/>
+      <c r="AM83" s="5"/>
     </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>654</v>
       </c>
@@ -18161,30 +18154,30 @@
       <c r="AD84" s="26">
         <v>525.51</v>
       </c>
+      <c r="AF84" s="26">
+        <v>551.79</v>
+      </c>
       <c r="AG84" s="26">
-        <v>551.79</v>
-      </c>
-      <c r="AH84" s="26">
         <v>1688.47</v>
       </c>
-      <c r="AI84" s="28">
+      <c r="AH84" s="28">
         <v>1012.9</v>
       </c>
+      <c r="AI84" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ84" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK84" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL84" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM84" s="5">
+      <c r="AL84" s="5">
         <v>1</v>
       </c>
-      <c r="AN84" s="5"/>
+      <c r="AM84" s="5"/>
     </row>
-    <row r="85" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>655</v>
       </c>
@@ -18272,30 +18265,30 @@
       <c r="AD85" s="26">
         <v>525.51</v>
       </c>
+      <c r="AF85" s="26">
+        <v>551.79</v>
+      </c>
       <c r="AG85" s="26">
-        <v>551.79</v>
-      </c>
-      <c r="AH85" s="26">
         <v>1688.47</v>
       </c>
-      <c r="AI85" s="28">
+      <c r="AH85" s="28">
         <v>1012.9</v>
       </c>
+      <c r="AI85" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="AJ85" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AK85" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL85" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM85" s="5">
+      <c r="AL85" s="5">
         <v>1</v>
       </c>
-      <c r="AN85" s="5"/>
+      <c r="AM85" s="5"/>
     </row>
-    <row r="86" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>656</v>
       </c>
@@ -18373,30 +18366,30 @@
       <c r="AD86" s="26">
         <v>359.9</v>
       </c>
+      <c r="AF86" s="26">
+        <v>377.9</v>
+      </c>
       <c r="AG86" s="26">
-        <v>377.9</v>
-      </c>
-      <c r="AH86" s="26">
         <v>1156.3699999999999</v>
       </c>
-      <c r="AI86" s="28">
+      <c r="AH86" s="28">
         <v>693.9</v>
       </c>
-      <c r="AJ86" s="2">
+      <c r="AI86" s="2">
         <v>341</v>
       </c>
+      <c r="AJ86" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="AK86" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL86" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM86" s="5">
+      <c r="AL86" s="5">
         <v>1</v>
       </c>
-      <c r="AN86" s="5"/>
+      <c r="AM86" s="5"/>
     </row>
-    <row r="87" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>657</v>
       </c>
@@ -18474,30 +18467,30 @@
       <c r="AD87" s="26">
         <v>359.9</v>
       </c>
+      <c r="AF87" s="26">
+        <v>377.9</v>
+      </c>
       <c r="AG87" s="26">
-        <v>377.9</v>
-      </c>
-      <c r="AH87" s="26">
         <v>1156.3699999999999</v>
       </c>
-      <c r="AI87" s="28">
+      <c r="AH87" s="28">
         <v>693.9</v>
       </c>
-      <c r="AJ87" s="2">
+      <c r="AI87" s="2">
         <v>341</v>
       </c>
+      <c r="AJ87" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="AK87" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL87" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM87" s="5">
+      <c r="AL87" s="5">
         <v>1</v>
       </c>
-      <c r="AN87" s="5"/>
+      <c r="AM87" s="5"/>
     </row>
-    <row r="88" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>658</v>
       </c>
@@ -18575,30 +18568,30 @@
       <c r="AD88" s="26">
         <v>359.9</v>
       </c>
+      <c r="AF88" s="26">
+        <v>377.9</v>
+      </c>
       <c r="AG88" s="26">
-        <v>377.9</v>
-      </c>
-      <c r="AH88" s="26">
         <v>1156.3699999999999</v>
       </c>
-      <c r="AI88" s="28">
+      <c r="AH88" s="28">
         <v>693.9</v>
       </c>
-      <c r="AJ88" s="2">
+      <c r="AI88" s="2">
         <v>341</v>
       </c>
+      <c r="AJ88" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="AK88" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL88" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM88" s="5">
+      <c r="AL88" s="5">
         <v>1</v>
       </c>
-      <c r="AN88" s="5"/>
+      <c r="AM88" s="5"/>
     </row>
-    <row r="89" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>659</v>
       </c>
@@ -18676,30 +18669,30 @@
       <c r="AD89" s="26">
         <v>359.9</v>
       </c>
+      <c r="AF89" s="26">
+        <v>377.9</v>
+      </c>
       <c r="AG89" s="26">
-        <v>377.9</v>
-      </c>
-      <c r="AH89" s="26">
         <v>1156.3699999999999</v>
       </c>
-      <c r="AI89" s="28">
+      <c r="AH89" s="28">
         <v>693.9</v>
       </c>
-      <c r="AJ89" s="2">
+      <c r="AI89" s="2">
         <v>341</v>
       </c>
+      <c r="AJ89" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="AK89" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL89" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM89" s="5">
+      <c r="AL89" s="5">
         <v>1</v>
       </c>
-      <c r="AN89" s="5"/>
+      <c r="AM89" s="5"/>
     </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>660</v>
       </c>
@@ -18777,30 +18770,30 @@
       <c r="AD90" s="26">
         <v>359.9</v>
       </c>
+      <c r="AF90" s="26">
+        <v>377.9</v>
+      </c>
       <c r="AG90" s="26">
-        <v>377.9</v>
-      </c>
-      <c r="AH90" s="26">
         <v>1156.3699999999999</v>
       </c>
-      <c r="AI90" s="28">
+      <c r="AH90" s="28">
         <v>693.9</v>
       </c>
-      <c r="AJ90" s="2">
+      <c r="AI90" s="2">
         <v>341</v>
       </c>
+      <c r="AJ90" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="AK90" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL90" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM90" s="5">
+      <c r="AL90" s="5">
         <v>1</v>
       </c>
-      <c r="AN90" s="5"/>
+      <c r="AM90" s="5"/>
     </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>661</v>
       </c>
@@ -18888,30 +18881,30 @@
       <c r="AD91" s="26">
         <v>552.24</v>
       </c>
+      <c r="AF91" s="26">
+        <v>579.86</v>
+      </c>
       <c r="AG91" s="26">
-        <v>579.86</v>
-      </c>
-      <c r="AH91" s="26">
         <v>1774.36</v>
       </c>
-      <c r="AI91" s="28">
+      <c r="AH91" s="28">
         <v>1064.9000000000001</v>
       </c>
-      <c r="AJ91" s="2">
+      <c r="AI91" s="2">
         <v>341</v>
       </c>
+      <c r="AJ91" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="AK91" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL91" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM91" s="5">
+      <c r="AL91" s="5">
         <v>1</v>
       </c>
-      <c r="AN91" s="5"/>
+      <c r="AM91" s="5"/>
     </row>
-    <row r="92" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>662</v>
       </c>
@@ -18999,30 +18992,30 @@
       <c r="AD92" s="26">
         <v>552.24</v>
       </c>
+      <c r="AF92" s="26">
+        <v>579.86</v>
+      </c>
       <c r="AG92" s="26">
-        <v>579.86</v>
-      </c>
-      <c r="AH92" s="26">
         <v>1774.36</v>
       </c>
-      <c r="AI92" s="28">
+      <c r="AH92" s="28">
         <v>1064.9000000000001</v>
       </c>
-      <c r="AJ92" s="2">
+      <c r="AI92" s="2">
         <v>341</v>
       </c>
+      <c r="AJ92" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="AK92" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL92" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM92" s="5">
+      <c r="AL92" s="5">
         <v>1</v>
       </c>
-      <c r="AN92" s="5"/>
+      <c r="AM92" s="5"/>
     </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>663</v>
       </c>
@@ -19110,30 +19103,30 @@
       <c r="AD93" s="26">
         <v>552.24</v>
       </c>
+      <c r="AF93" s="26">
+        <v>579.86</v>
+      </c>
       <c r="AG93" s="26">
-        <v>579.86</v>
-      </c>
-      <c r="AH93" s="26">
         <v>1774.36</v>
       </c>
-      <c r="AI93" s="28">
+      <c r="AH93" s="28">
         <v>1064.9000000000001</v>
       </c>
-      <c r="AJ93" s="2">
+      <c r="AI93" s="2">
         <v>341</v>
       </c>
+      <c r="AJ93" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="AK93" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL93" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM93" s="5">
+      <c r="AL93" s="5">
         <v>1</v>
       </c>
-      <c r="AN93" s="5"/>
+      <c r="AM93" s="5"/>
     </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>664</v>
       </c>
@@ -19221,30 +19214,30 @@
       <c r="AD94" s="26">
         <v>552.24</v>
       </c>
+      <c r="AF94" s="26">
+        <v>579.86</v>
+      </c>
       <c r="AG94" s="26">
-        <v>579.86</v>
-      </c>
-      <c r="AH94" s="26">
         <v>1774.36</v>
       </c>
-      <c r="AI94" s="28">
+      <c r="AH94" s="28">
         <v>1064.9000000000001</v>
       </c>
-      <c r="AJ94" s="2">
+      <c r="AI94" s="2">
         <v>341</v>
       </c>
+      <c r="AJ94" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="AK94" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL94" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM94" s="5">
+      <c r="AL94" s="5">
         <v>1</v>
       </c>
-      <c r="AN94" s="5"/>
+      <c r="AM94" s="5"/>
     </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>665</v>
       </c>
@@ -19332,30 +19325,30 @@
       <c r="AD95" s="26">
         <v>485.09</v>
       </c>
+      <c r="AF95" s="26">
+        <v>509.34</v>
+      </c>
       <c r="AG95" s="26">
-        <v>509.34</v>
-      </c>
-      <c r="AH95" s="26">
         <v>1558.59</v>
       </c>
-      <c r="AI95" s="28">
+      <c r="AH95" s="28">
         <v>934.9</v>
       </c>
+      <c r="AI95" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ95" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK95" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL95" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM95" s="5">
+      <c r="AL95" s="5">
         <v>1</v>
       </c>
-      <c r="AN95" s="5"/>
+      <c r="AM95" s="5"/>
     </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>666</v>
       </c>
@@ -19443,30 +19436,30 @@
       <c r="AD96" s="26">
         <v>485.09</v>
       </c>
+      <c r="AF96" s="26">
+        <v>509.34</v>
+      </c>
       <c r="AG96" s="26">
-        <v>509.34</v>
-      </c>
-      <c r="AH96" s="26">
         <v>1558.59</v>
       </c>
-      <c r="AI96" s="28">
+      <c r="AH96" s="28">
         <v>934.9</v>
       </c>
+      <c r="AI96" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ96" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL96" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM96" s="5">
+      <c r="AL96" s="5">
         <v>1</v>
       </c>
-      <c r="AN96" s="5"/>
+      <c r="AM96" s="5"/>
     </row>
-    <row r="97" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>667</v>
       </c>
@@ -19554,30 +19547,30 @@
       <c r="AD97" s="26">
         <v>485.09</v>
       </c>
+      <c r="AF97" s="26">
+        <v>509.34</v>
+      </c>
       <c r="AG97" s="26">
-        <v>509.34</v>
-      </c>
-      <c r="AH97" s="26">
         <v>1558.59</v>
       </c>
-      <c r="AI97" s="28">
+      <c r="AH97" s="28">
         <v>934.9</v>
       </c>
+      <c r="AI97" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ97" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK97" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL97" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM97" s="5">
+      <c r="AL97" s="5">
         <v>1</v>
       </c>
-      <c r="AN97" s="5"/>
+      <c r="AM97" s="5"/>
     </row>
-    <row r="98" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>668</v>
       </c>
@@ -19665,30 +19658,30 @@
       <c r="AD98" s="26">
         <v>283.62</v>
       </c>
+      <c r="AF98" s="26">
+        <v>297.8</v>
+      </c>
       <c r="AG98" s="26">
-        <v>297.8</v>
-      </c>
-      <c r="AH98" s="26">
         <v>911.27</v>
       </c>
-      <c r="AI98" s="28">
+      <c r="AH98" s="28">
         <v>546.9</v>
       </c>
+      <c r="AI98" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ98" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK98" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL98" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM98" s="5">
+      <c r="AL98" s="5">
         <v>1</v>
       </c>
-      <c r="AN98" s="5"/>
+      <c r="AM98" s="5"/>
     </row>
-    <row r="99" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>669</v>
       </c>
@@ -19776,30 +19769,30 @@
       <c r="AD99" s="26">
         <v>472.05</v>
       </c>
+      <c r="AF99" s="26">
+        <v>495.65</v>
+      </c>
       <c r="AG99" s="26">
-        <v>495.65</v>
-      </c>
-      <c r="AH99" s="26">
         <v>1516.69</v>
       </c>
-      <c r="AI99" s="28">
+      <c r="AH99" s="28">
         <v>909.9</v>
       </c>
+      <c r="AI99" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ99" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK99" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL99" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM99" s="5">
+      <c r="AL99" s="5">
         <v>1</v>
       </c>
-      <c r="AN99" s="5"/>
+      <c r="AM99" s="5"/>
     </row>
-    <row r="100" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>670</v>
       </c>
@@ -19877,30 +19870,30 @@
       <c r="AD100" s="26">
         <v>385.98</v>
       </c>
+      <c r="AF100" s="26">
+        <v>405.28</v>
+      </c>
       <c r="AG100" s="26">
-        <v>405.28</v>
-      </c>
-      <c r="AH100" s="26">
         <v>1240.17</v>
       </c>
-      <c r="AI100" s="28">
+      <c r="AH100" s="28">
         <v>743.9</v>
       </c>
+      <c r="AI100" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ100" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK100" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL100" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM100" s="5">
+      <c r="AL100" s="5">
         <v>1</v>
       </c>
-      <c r="AN100" s="5"/>
+      <c r="AM100" s="5"/>
     </row>
-    <row r="101" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>671</v>
       </c>
@@ -19978,30 +19971,30 @@
       <c r="AD101" s="26">
         <v>385.98</v>
       </c>
+      <c r="AF101" s="26">
+        <v>405.28</v>
+      </c>
       <c r="AG101" s="26">
-        <v>405.28</v>
-      </c>
-      <c r="AH101" s="26">
         <v>1240.17</v>
       </c>
-      <c r="AI101" s="28">
+      <c r="AH101" s="28">
         <v>743.9</v>
       </c>
+      <c r="AI101" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ101" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK101" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL101" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM101" s="5">
+      <c r="AL101" s="5">
         <v>1</v>
       </c>
-      <c r="AN101" s="5"/>
+      <c r="AM101" s="5"/>
     </row>
-    <row r="102" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>672</v>
       </c>
@@ -20079,30 +20072,30 @@
       <c r="AD102" s="26">
         <v>385.98</v>
       </c>
+      <c r="AF102" s="26">
+        <v>405.28</v>
+      </c>
       <c r="AG102" s="26">
-        <v>405.28</v>
-      </c>
-      <c r="AH102" s="26">
         <v>1240.17</v>
       </c>
-      <c r="AI102" s="28">
+      <c r="AH102" s="28">
         <v>743.9</v>
       </c>
+      <c r="AI102" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ102" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK102" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL102" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM102" s="5">
+      <c r="AL102" s="5">
         <v>1</v>
       </c>
-      <c r="AN102" s="5"/>
+      <c r="AM102" s="5"/>
     </row>
-    <row r="103" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>673</v>
       </c>
@@ -20180,30 +20173,30 @@
       <c r="AD103" s="26">
         <v>385.98</v>
       </c>
+      <c r="AF103" s="26">
+        <v>405.28</v>
+      </c>
       <c r="AG103" s="26">
-        <v>405.28</v>
-      </c>
-      <c r="AH103" s="26">
         <v>1240.17</v>
       </c>
-      <c r="AI103" s="28">
+      <c r="AH103" s="28">
         <v>743.9</v>
       </c>
+      <c r="AI103" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ103" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK103" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL103" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM103" s="5">
+      <c r="AL103" s="5">
         <v>1</v>
       </c>
-      <c r="AN103" s="5"/>
+      <c r="AM103" s="5"/>
     </row>
-    <row r="104" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>674</v>
       </c>
@@ -20291,30 +20284,30 @@
       <c r="AD104" s="26">
         <v>500.08</v>
       </c>
+      <c r="AF104" s="26">
+        <v>525.09</v>
+      </c>
       <c r="AG104" s="26">
-        <v>525.09</v>
-      </c>
-      <c r="AH104" s="26">
         <v>1606.77</v>
       </c>
-      <c r="AI104" s="28">
+      <c r="AH104" s="28">
         <v>963.9</v>
       </c>
+      <c r="AI104" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ104" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK104" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL104" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM104" s="5">
+      <c r="AL104" s="5">
         <v>1</v>
       </c>
-      <c r="AN104" s="5"/>
+      <c r="AM104" s="5"/>
     </row>
-    <row r="105" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>675</v>
       </c>
@@ -20402,30 +20395,30 @@
       <c r="AD105" s="26">
         <v>500.08</v>
       </c>
+      <c r="AF105" s="26">
+        <v>525.09</v>
+      </c>
       <c r="AG105" s="26">
-        <v>525.09</v>
-      </c>
-      <c r="AH105" s="26">
         <v>1606.77</v>
       </c>
-      <c r="AI105" s="28">
+      <c r="AH105" s="28">
         <v>963.9</v>
       </c>
+      <c r="AI105" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ105" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK105" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL105" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM105" s="5">
+      <c r="AL105" s="5">
         <v>1</v>
       </c>
-      <c r="AN105" s="5"/>
+      <c r="AM105" s="5"/>
     </row>
-    <row r="106" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>676</v>
       </c>
@@ -20513,30 +20506,30 @@
       <c r="AD106" s="26">
         <v>500.08</v>
       </c>
+      <c r="AF106" s="26">
+        <v>525.09</v>
+      </c>
       <c r="AG106" s="26">
-        <v>525.09</v>
-      </c>
-      <c r="AH106" s="26">
         <v>1606.77</v>
       </c>
-      <c r="AI106" s="28">
+      <c r="AH106" s="28">
         <v>963.9</v>
       </c>
+      <c r="AI106" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ106" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK106" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL106" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM106" s="5">
+      <c r="AL106" s="5">
         <v>1</v>
       </c>
-      <c r="AN106" s="5"/>
+      <c r="AM106" s="5"/>
     </row>
-    <row r="107" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>677</v>
       </c>
@@ -20624,30 +20617,30 @@
       <c r="AD107" s="26">
         <v>553.54999999999995</v>
       </c>
+      <c r="AF107" s="26">
+        <v>581.23</v>
+      </c>
       <c r="AG107" s="26">
-        <v>581.23</v>
-      </c>
-      <c r="AH107" s="26">
         <v>1778.55</v>
       </c>
-      <c r="AI107" s="28">
+      <c r="AH107" s="28">
         <v>1066.9000000000001</v>
       </c>
+      <c r="AI107" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ107" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK107" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL107" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM107" s="5">
+      <c r="AL107" s="5">
         <v>1</v>
       </c>
-      <c r="AN107" s="5"/>
+      <c r="AM107" s="5"/>
     </row>
-    <row r="108" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>678</v>
       </c>
@@ -20735,30 +20728,30 @@
       <c r="AD108" s="26">
         <v>553.54999999999995</v>
       </c>
+      <c r="AF108" s="26">
+        <v>581.23</v>
+      </c>
       <c r="AG108" s="26">
-        <v>581.23</v>
-      </c>
-      <c r="AH108" s="26">
         <v>1778.55</v>
       </c>
-      <c r="AI108" s="28">
+      <c r="AH108" s="28">
         <v>1066.9000000000001</v>
       </c>
+      <c r="AI108" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ108" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK108" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL108" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM108" s="5">
+      <c r="AL108" s="5">
         <v>1</v>
       </c>
-      <c r="AN108" s="5"/>
+      <c r="AM108" s="5"/>
     </row>
-    <row r="109" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>679</v>
       </c>
@@ -20846,30 +20839,30 @@
       <c r="AD109" s="26">
         <v>553.54999999999995</v>
       </c>
+      <c r="AF109" s="26">
+        <v>581.23</v>
+      </c>
       <c r="AG109" s="26">
-        <v>581.23</v>
-      </c>
-      <c r="AH109" s="26">
         <v>1778.55</v>
       </c>
-      <c r="AI109" s="28">
+      <c r="AH109" s="28">
         <v>1066.9000000000001</v>
       </c>
+      <c r="AI109" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ109" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK109" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL109" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM109" s="5">
+      <c r="AL109" s="5">
         <v>1</v>
       </c>
-      <c r="AN109" s="5"/>
+      <c r="AM109" s="5"/>
     </row>
-    <row r="110" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>680</v>
       </c>
@@ -20957,30 +20950,30 @@
       <c r="AD110" s="26">
         <v>412.72</v>
       </c>
+      <c r="AF110" s="26">
+        <v>433.35</v>
+      </c>
       <c r="AG110" s="26">
-        <v>433.35</v>
-      </c>
-      <c r="AH110" s="26">
         <v>1326.06</v>
       </c>
-      <c r="AI110" s="28">
+      <c r="AH110" s="28">
         <v>795.9</v>
       </c>
+      <c r="AI110" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ110" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK110" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL110" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM110" s="5">
+      <c r="AL110" s="5">
         <v>1</v>
       </c>
-      <c r="AN110" s="5"/>
+      <c r="AM110" s="5"/>
     </row>
-    <row r="111" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>681</v>
       </c>
@@ -21068,30 +21061,30 @@
       <c r="AD111" s="26">
         <v>412.72</v>
       </c>
+      <c r="AF111" s="26">
+        <v>433.35</v>
+      </c>
       <c r="AG111" s="26">
-        <v>433.35</v>
-      </c>
-      <c r="AH111" s="26">
         <v>1326.06</v>
       </c>
-      <c r="AI111" s="28">
+      <c r="AH111" s="28">
         <v>795.9</v>
       </c>
+      <c r="AI111" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ111" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK111" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL111" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM111" s="5">
+      <c r="AL111" s="5">
         <v>1</v>
       </c>
-      <c r="AN111" s="5"/>
+      <c r="AM111" s="5"/>
     </row>
-    <row r="112" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>682</v>
       </c>
@@ -21169,30 +21162,30 @@
       <c r="AD112" s="26">
         <v>258.19</v>
       </c>
+      <c r="AF112" s="26">
+        <v>271.10000000000002</v>
+      </c>
       <c r="AG112" s="26">
-        <v>271.10000000000002</v>
-      </c>
-      <c r="AH112" s="26">
         <v>829.57</v>
       </c>
-      <c r="AI112" s="28">
+      <c r="AH112" s="28">
         <v>497.9</v>
       </c>
+      <c r="AI112" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ112" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK112" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL112" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM112" s="5">
+      <c r="AL112" s="5">
         <v>1</v>
       </c>
-      <c r="AN112" s="5"/>
+      <c r="AM112" s="5"/>
     </row>
-    <row r="113" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>683</v>
       </c>
@@ -21270,30 +21263,30 @@
       <c r="AD113" s="26">
         <v>258.19</v>
       </c>
+      <c r="AF113" s="26">
+        <v>271.10000000000002</v>
+      </c>
       <c r="AG113" s="26">
-        <v>271.10000000000002</v>
-      </c>
-      <c r="AH113" s="26">
         <v>829.57</v>
       </c>
-      <c r="AI113" s="28">
+      <c r="AH113" s="28">
         <v>497.9</v>
       </c>
+      <c r="AI113" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ113" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK113" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL113" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM113" s="5">
+      <c r="AL113" s="5">
         <v>1</v>
       </c>
-      <c r="AN113" s="5"/>
+      <c r="AM113" s="5"/>
     </row>
-    <row r="114" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>684</v>
       </c>
@@ -21371,30 +21364,30 @@
       <c r="AD114" s="26">
         <v>258.19</v>
       </c>
+      <c r="AF114" s="26">
+        <v>271.10000000000002</v>
+      </c>
       <c r="AG114" s="26">
-        <v>271.10000000000002</v>
-      </c>
-      <c r="AH114" s="26">
         <v>829.57</v>
       </c>
-      <c r="AI114" s="28">
+      <c r="AH114" s="28">
         <v>497.9</v>
       </c>
+      <c r="AI114" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ114" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK114" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL114" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM114" s="5">
+      <c r="AL114" s="5">
         <v>1</v>
       </c>
-      <c r="AN114" s="5"/>
+      <c r="AM114" s="5"/>
     </row>
-    <row r="115" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>685</v>
       </c>
@@ -21472,30 +21465,30 @@
       <c r="AD115" s="26">
         <v>258.19</v>
       </c>
+      <c r="AF115" s="26">
+        <v>271.10000000000002</v>
+      </c>
       <c r="AG115" s="26">
-        <v>271.10000000000002</v>
-      </c>
-      <c r="AH115" s="26">
         <v>829.57</v>
       </c>
-      <c r="AI115" s="28">
+      <c r="AH115" s="28">
         <v>497.9</v>
       </c>
+      <c r="AI115" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ115" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK115" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL115" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM115" s="5">
+      <c r="AL115" s="5">
         <v>1</v>
       </c>
-      <c r="AN115" s="5"/>
+      <c r="AM115" s="5"/>
     </row>
-    <row r="116" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>686</v>
       </c>
@@ -21573,30 +21566,30 @@
       <c r="AD116" s="26">
         <v>283.62</v>
       </c>
+      <c r="AF116" s="26">
+        <v>297.8</v>
+      </c>
       <c r="AG116" s="26">
-        <v>297.8</v>
-      </c>
-      <c r="AH116" s="26">
         <v>911.27</v>
       </c>
-      <c r="AI116" s="28">
+      <c r="AH116" s="28">
         <v>546.9</v>
       </c>
+      <c r="AI116" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ116" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK116" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL116" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM116" s="5">
+      <c r="AL116" s="5">
         <v>1</v>
       </c>
-      <c r="AN116" s="5"/>
+      <c r="AM116" s="5"/>
     </row>
-    <row r="117" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>687</v>
       </c>
@@ -21674,30 +21667,30 @@
       <c r="AD117" s="26">
         <v>283.62</v>
       </c>
+      <c r="AF117" s="26">
+        <v>297.8</v>
+      </c>
       <c r="AG117" s="26">
-        <v>297.8</v>
-      </c>
-      <c r="AH117" s="26">
         <v>911.27</v>
       </c>
-      <c r="AI117" s="28">
+      <c r="AH117" s="28">
         <v>546.9</v>
       </c>
+      <c r="AI117" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ117" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK117" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL117" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM117" s="5">
+      <c r="AL117" s="5">
         <v>1</v>
       </c>
-      <c r="AN117" s="5"/>
+      <c r="AM117" s="5"/>
     </row>
-    <row r="118" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>688</v>
       </c>
@@ -21775,30 +21768,30 @@
       <c r="AD118" s="26">
         <v>283.62</v>
       </c>
+      <c r="AF118" s="26">
+        <v>297.8</v>
+      </c>
       <c r="AG118" s="26">
-        <v>297.8</v>
-      </c>
-      <c r="AH118" s="26">
         <v>911.27</v>
       </c>
-      <c r="AI118" s="28">
+      <c r="AH118" s="28">
         <v>546.9</v>
       </c>
+      <c r="AI118" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ118" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK118" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL118" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM118" s="5">
+      <c r="AL118" s="5">
         <v>1</v>
       </c>
-      <c r="AN118" s="5"/>
+      <c r="AM118" s="5"/>
     </row>
-    <row r="119" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>689</v>
       </c>
@@ -21876,30 +21869,30 @@
       <c r="AD119" s="26">
         <v>283.62</v>
       </c>
+      <c r="AF119" s="26">
+        <v>297.8</v>
+      </c>
       <c r="AG119" s="26">
-        <v>297.8</v>
-      </c>
-      <c r="AH119" s="26">
         <v>911.27</v>
       </c>
-      <c r="AI119" s="28">
+      <c r="AH119" s="28">
         <v>546.9</v>
       </c>
+      <c r="AI119" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ119" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK119" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL119" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM119" s="5">
+      <c r="AL119" s="5">
         <v>1</v>
       </c>
-      <c r="AN119" s="5"/>
+      <c r="AM119" s="5"/>
     </row>
-    <row r="120" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>690</v>
       </c>
@@ -21977,30 +21970,30 @@
       <c r="AD120" s="26">
         <v>275.8</v>
       </c>
+      <c r="AF120" s="26">
+        <v>289.58999999999997</v>
+      </c>
       <c r="AG120" s="26">
-        <v>289.58999999999997</v>
-      </c>
-      <c r="AH120" s="26">
         <v>886.13</v>
       </c>
-      <c r="AI120" s="28">
+      <c r="AH120" s="28">
         <v>531.9</v>
       </c>
+      <c r="AI120" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ120" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK120" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL120" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM120" s="5">
+      <c r="AL120" s="5">
         <v>1</v>
       </c>
-      <c r="AN120" s="5"/>
+      <c r="AM120" s="5"/>
     </row>
-    <row r="121" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>691</v>
       </c>
@@ -22078,30 +22071,30 @@
       <c r="AD121" s="26">
         <v>275.8</v>
       </c>
+      <c r="AF121" s="26">
+        <v>289.58999999999997</v>
+      </c>
       <c r="AG121" s="26">
-        <v>289.58999999999997</v>
-      </c>
-      <c r="AH121" s="26">
         <v>886.13</v>
       </c>
-      <c r="AI121" s="28">
+      <c r="AH121" s="28">
         <v>531.9</v>
       </c>
+      <c r="AI121" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ121" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK121" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL121" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM121" s="5">
+      <c r="AL121" s="5">
         <v>1</v>
       </c>
-      <c r="AN121" s="5"/>
+      <c r="AM121" s="5"/>
     </row>
-    <row r="122" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>692</v>
       </c>
@@ -22179,30 +22172,30 @@
       <c r="AD122" s="26">
         <v>275.8</v>
       </c>
+      <c r="AF122" s="26">
+        <v>289.58999999999997</v>
+      </c>
       <c r="AG122" s="26">
-        <v>289.58999999999997</v>
-      </c>
-      <c r="AH122" s="26">
         <v>886.13</v>
       </c>
-      <c r="AI122" s="28">
+      <c r="AH122" s="28">
         <v>531.9</v>
       </c>
+      <c r="AI122" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ122" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK122" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL122" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM122" s="5">
+      <c r="AL122" s="5">
         <v>1</v>
       </c>
-      <c r="AN122" s="5"/>
+      <c r="AM122" s="5"/>
     </row>
-    <row r="123" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>693</v>
       </c>
@@ -22280,30 +22273,30 @@
       <c r="AD123" s="26">
         <v>275.8</v>
       </c>
+      <c r="AF123" s="26">
+        <v>289.58999999999997</v>
+      </c>
       <c r="AG123" s="26">
-        <v>289.58999999999997</v>
-      </c>
-      <c r="AH123" s="26">
         <v>886.13</v>
       </c>
-      <c r="AI123" s="28">
+      <c r="AH123" s="28">
         <v>531.9</v>
       </c>
+      <c r="AI123" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ123" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK123" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL123" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM123" s="5">
+      <c r="AL123" s="5">
         <v>1</v>
       </c>
-      <c r="AN123" s="5"/>
+      <c r="AM123" s="5"/>
     </row>
-    <row r="124" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>694</v>
       </c>
@@ -22381,30 +22374,30 @@
       <c r="AD124" s="26">
         <v>226.24</v>
       </c>
+      <c r="AF124" s="26">
+        <v>237.56</v>
+      </c>
       <c r="AG124" s="26">
-        <v>237.56</v>
-      </c>
-      <c r="AH124" s="26">
         <v>726.92</v>
       </c>
-      <c r="AI124" s="28">
+      <c r="AH124" s="28">
         <v>435.9</v>
       </c>
+      <c r="AI124" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ124" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK124" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL124" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM124" s="5">
+      <c r="AL124" s="5">
         <v>1</v>
       </c>
-      <c r="AN124" s="5"/>
+      <c r="AM124" s="5"/>
     </row>
-    <row r="125" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>695</v>
       </c>
@@ -22482,30 +22475,30 @@
       <c r="AD125" s="26">
         <v>226.24</v>
       </c>
+      <c r="AF125" s="26">
+        <v>237.56</v>
+      </c>
       <c r="AG125" s="26">
-        <v>237.56</v>
-      </c>
-      <c r="AH125" s="26">
         <v>726.92</v>
       </c>
-      <c r="AI125" s="28">
+      <c r="AH125" s="28">
         <v>435.9</v>
       </c>
+      <c r="AI125" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ125" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK125" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL125" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM125" s="5">
+      <c r="AL125" s="5">
         <v>1</v>
       </c>
-      <c r="AN125" s="5"/>
+      <c r="AM125" s="5"/>
     </row>
-    <row r="126" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>696</v>
       </c>
@@ -22583,30 +22576,30 @@
       <c r="AD126" s="26">
         <v>226.24</v>
       </c>
+      <c r="AF126" s="26">
+        <v>237.56</v>
+      </c>
       <c r="AG126" s="26">
-        <v>237.56</v>
-      </c>
-      <c r="AH126" s="26">
         <v>726.92</v>
       </c>
-      <c r="AI126" s="28">
+      <c r="AH126" s="28">
         <v>435.9</v>
       </c>
+      <c r="AI126" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ126" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK126" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL126" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM126" s="5">
+      <c r="AL126" s="5">
         <v>1</v>
       </c>
-      <c r="AN126" s="5"/>
+      <c r="AM126" s="5"/>
     </row>
-    <row r="127" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>697</v>
       </c>
@@ -22684,30 +22677,30 @@
       <c r="AD127" s="26">
         <v>226.24</v>
       </c>
+      <c r="AF127" s="26">
+        <v>237.56</v>
+      </c>
       <c r="AG127" s="26">
-        <v>237.56</v>
-      </c>
-      <c r="AH127" s="26">
         <v>726.92</v>
       </c>
-      <c r="AI127" s="28">
+      <c r="AH127" s="28">
         <v>435.9</v>
       </c>
+      <c r="AI127" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="AJ127" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK127" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL127" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM127" s="5">
+      <c r="AL127" s="5">
         <v>1</v>
       </c>
-      <c r="AN127" s="5"/>
+      <c r="AM127" s="5"/>
     </row>
-    <row r="128" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>698</v>
       </c>
@@ -22795,30 +22788,30 @@
       <c r="AD128" s="26">
         <v>338.39</v>
       </c>
+      <c r="AF128" s="26">
+        <v>355.31</v>
+      </c>
       <c r="AG128" s="26">
-        <v>355.31</v>
-      </c>
-      <c r="AH128" s="26">
         <v>1087.24</v>
       </c>
-      <c r="AI128" s="28">
+      <c r="AH128" s="28">
         <v>651.9</v>
       </c>
+      <c r="AI128" s="2" t="s">
+        <v>561</v>
+      </c>
       <c r="AJ128" s="2" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="AK128" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="AL128" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM128" s="5">
+      <c r="AL128" s="5">
         <v>1</v>
       </c>
-      <c r="AN128" s="5"/>
+      <c r="AM128" s="5"/>
     </row>
-    <row r="129" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>699</v>
       </c>
@@ -22906,30 +22899,30 @@
       <c r="AD129" s="26">
         <v>338.39</v>
       </c>
+      <c r="AF129" s="26">
+        <v>355.31</v>
+      </c>
       <c r="AG129" s="26">
-        <v>355.31</v>
-      </c>
-      <c r="AH129" s="26">
         <v>1087.24</v>
       </c>
-      <c r="AI129" s="28">
+      <c r="AH129" s="28">
         <v>651.9</v>
       </c>
+      <c r="AI129" s="2" t="s">
+        <v>561</v>
+      </c>
       <c r="AJ129" s="2" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="AK129" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="AL129" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM129" s="5">
+      <c r="AL129" s="5">
         <v>1</v>
       </c>
-      <c r="AN129" s="5"/>
+      <c r="AM129" s="5"/>
     </row>
-    <row r="130" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>700</v>
       </c>
@@ -23007,30 +23000,30 @@
       <c r="AD130" s="26">
         <v>384.03</v>
       </c>
+      <c r="AF130" s="26">
+        <v>403.23</v>
+      </c>
       <c r="AG130" s="26">
-        <v>403.23</v>
-      </c>
-      <c r="AH130" s="26">
         <v>1233.8800000000001</v>
       </c>
-      <c r="AI130" s="28">
+      <c r="AH130" s="28">
         <v>739.9</v>
       </c>
+      <c r="AI130" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="AJ130" s="2" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="AK130" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="AL130" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM130" s="5">
+      <c r="AL130" s="5">
         <v>1</v>
       </c>
-      <c r="AN130" s="5"/>
+      <c r="AM130" s="5"/>
     </row>
-    <row r="131" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>701</v>
       </c>
@@ -23108,30 +23101,30 @@
       <c r="AD131" s="26">
         <v>384.03</v>
       </c>
+      <c r="AF131" s="26">
+        <v>403.23</v>
+      </c>
       <c r="AG131" s="26">
-        <v>403.23</v>
-      </c>
-      <c r="AH131" s="26">
         <v>1233.8800000000001</v>
       </c>
-      <c r="AI131" s="28">
+      <c r="AH131" s="28">
         <v>739.9</v>
       </c>
+      <c r="AI131" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="AJ131" s="2" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="AK131" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="AL131" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM131" s="5">
+      <c r="AL131" s="5">
         <v>1</v>
       </c>
-      <c r="AN131" s="5"/>
+      <c r="AM131" s="5"/>
     </row>
-    <row r="132" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>702</v>
       </c>
@@ -23209,30 +23202,30 @@
       <c r="AD132" s="26">
         <v>339.69</v>
       </c>
+      <c r="AF132" s="26">
+        <v>356.68</v>
+      </c>
       <c r="AG132" s="26">
-        <v>356.68</v>
-      </c>
-      <c r="AH132" s="26">
         <v>1091.43</v>
       </c>
-      <c r="AI132" s="28">
+      <c r="AH132" s="28">
         <v>654.9</v>
       </c>
+      <c r="AI132" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="AJ132" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AK132" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AL132" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM132" s="5">
+      <c r="AL132" s="5">
         <v>1</v>
       </c>
-      <c r="AN132" s="5"/>
+      <c r="AM132" s="5"/>
     </row>
-    <row r="133" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>703</v>
       </c>
@@ -23310,30 +23303,30 @@
       <c r="AD133" s="26">
         <v>339.69</v>
       </c>
+      <c r="AF133" s="26">
+        <v>356.68</v>
+      </c>
       <c r="AG133" s="26">
-        <v>356.68</v>
-      </c>
-      <c r="AH133" s="26">
         <v>1091.43</v>
       </c>
-      <c r="AI133" s="28">
+      <c r="AH133" s="28">
         <v>654.9</v>
       </c>
+      <c r="AI133" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="AJ133" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AK133" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AL133" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM133" s="5">
+      <c r="AL133" s="5">
         <v>1</v>
       </c>
-      <c r="AN133" s="5"/>
+      <c r="AM133" s="5"/>
     </row>
-    <row r="134" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>704</v>
       </c>
@@ -23411,30 +23404,30 @@
       <c r="AD134" s="26">
         <v>266.02</v>
       </c>
+      <c r="AF134" s="26">
+        <v>279.32</v>
+      </c>
       <c r="AG134" s="26">
-        <v>279.32</v>
-      </c>
-      <c r="AH134" s="26">
         <v>854.71</v>
       </c>
-      <c r="AI134" s="28">
+      <c r="AH134" s="28">
         <v>512.9</v>
       </c>
+      <c r="AI134" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="AJ134" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AK134" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AL134" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM134" s="5">
+      <c r="AL134" s="5">
         <v>1</v>
       </c>
-      <c r="AN134" s="5"/>
+      <c r="AM134" s="5"/>
     </row>
-    <row r="135" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>705</v>
       </c>
@@ -23512,30 +23505,30 @@
       <c r="AD135" s="26">
         <v>266.02</v>
       </c>
+      <c r="AF135" s="26">
+        <v>279.32</v>
+      </c>
       <c r="AG135" s="26">
-        <v>279.32</v>
-      </c>
-      <c r="AH135" s="26">
         <v>854.71</v>
       </c>
-      <c r="AI135" s="28">
+      <c r="AH135" s="28">
         <v>512.9</v>
       </c>
+      <c r="AI135" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="AJ135" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AK135" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AL135" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM135" s="5">
+      <c r="AL135" s="5">
         <v>1</v>
       </c>
-      <c r="AN135" s="5"/>
+      <c r="AM135" s="5"/>
     </row>
-    <row r="136" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>706</v>
       </c>
@@ -23613,30 +23606,30 @@
       <c r="AD136" s="26">
         <v>197.56</v>
       </c>
+      <c r="AF136" s="26">
+        <v>207.43</v>
+      </c>
       <c r="AG136" s="26">
-        <v>207.43</v>
-      </c>
-      <c r="AH136" s="26">
         <v>634.75</v>
       </c>
-      <c r="AI136" s="28">
+      <c r="AH136" s="28">
         <v>380.9</v>
       </c>
+      <c r="AI136" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="AJ136" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AK136" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AL136" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM136" s="5">
+      <c r="AL136" s="5">
         <v>1</v>
       </c>
-      <c r="AN136" s="5"/>
+      <c r="AM136" s="5"/>
     </row>
-    <row r="137" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>707</v>
       </c>
@@ -23714,28 +23707,28 @@
       <c r="AD137" s="26">
         <v>197.56</v>
       </c>
+      <c r="AF137" s="26">
+        <v>207.43</v>
+      </c>
       <c r="AG137" s="26">
-        <v>207.43</v>
-      </c>
-      <c r="AH137" s="26">
         <v>634.75</v>
       </c>
-      <c r="AI137" s="28">
+      <c r="AH137" s="28">
         <v>380.9</v>
       </c>
+      <c r="AI137" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="AJ137" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AK137" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AL137" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AM137" s="5">
+      <c r="AL137" s="5">
         <v>1</v>
       </c>
-      <c r="AN137" s="5"/>
+      <c r="AM137" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
